--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9232928060447968</v>
+        <v>0.923292806044796</v>
       </c>
       <c r="D2">
         <v>1.026899028325532</v>
       </c>
       <c r="E2">
-        <v>0.9377996660950302</v>
+        <v>0.9377996660950296</v>
       </c>
       <c r="F2">
         <v>0.9494106650207615</v>
@@ -439,16 +439,16 @@
         <v>1.039828520297882</v>
       </c>
       <c r="J2">
-        <v>0.9480376807711939</v>
+        <v>0.9480376807711932</v>
       </c>
       <c r="K2">
         <v>1.037995917160359</v>
       </c>
       <c r="L2">
-        <v>0.9501994020289369</v>
+        <v>0.9501994020289365</v>
       </c>
       <c r="M2">
-        <v>0.9616228736324319</v>
+        <v>0.961622873632432</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9399198499140531</v>
+        <v>0.9399198499140545</v>
       </c>
       <c r="D3">
-        <v>1.032166858519222</v>
+        <v>1.032166858519221</v>
       </c>
       <c r="E3">
-        <v>0.9521327710369114</v>
+        <v>0.952132771036913</v>
       </c>
       <c r="F3">
-        <v>0.9644885508600105</v>
+        <v>0.9644885508600116</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.043601721322534</v>
       </c>
       <c r="J3">
-        <v>0.9621940581172306</v>
+        <v>0.962194058117232</v>
       </c>
       <c r="K3">
-        <v>1.04240405894844</v>
+        <v>1.042404058948439</v>
       </c>
       <c r="L3">
-        <v>0.963417114276323</v>
+        <v>0.9634171142763245</v>
       </c>
       <c r="M3">
-        <v>0.9755969179510939</v>
+        <v>0.975596917951095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.949970028010193</v>
+        <v>0.949970028010191</v>
       </c>
       <c r="D4">
         <v>1.035390342339696</v>
       </c>
       <c r="E4">
-        <v>0.9608047252749513</v>
+        <v>0.9608047252749495</v>
       </c>
       <c r="F4">
-        <v>0.9736273639114391</v>
+        <v>0.9736273639114371</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045874130067713</v>
+        <v>1.045874130067712</v>
       </c>
       <c r="J4">
-        <v>0.9707462666888997</v>
+        <v>0.9707462666888979</v>
       </c>
       <c r="K4">
-        <v>1.045079606022267</v>
+        <v>1.045079606022266</v>
       </c>
       <c r="L4">
-        <v>0.9714004120173348</v>
+        <v>0.9714004120173331</v>
       </c>
       <c r="M4">
-        <v>0.9840548614404644</v>
+        <v>0.9840548614404626</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9540468178910663</v>
+        <v>0.9540468178910692</v>
       </c>
       <c r="D5">
         <v>1.036705892821996</v>
       </c>
       <c r="E5">
-        <v>0.9643240037291438</v>
+        <v>0.9643240037291468</v>
       </c>
       <c r="F5">
-        <v>0.9773395205717185</v>
+        <v>0.9773395205717208</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046793308613808</v>
+        <v>1.046793308613809</v>
       </c>
       <c r="J5">
-        <v>0.9742140071187056</v>
+        <v>0.9742140071187083</v>
       </c>
       <c r="K5">
-        <v>1.046166594186878</v>
+        <v>1.046166594186879</v>
       </c>
       <c r="L5">
-        <v>0.9746370020792242</v>
+        <v>0.974637002079227</v>
       </c>
       <c r="M5">
-        <v>0.9874876692099289</v>
+        <v>0.9874876692099313</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9547231686015247</v>
+        <v>0.9547231686015258</v>
       </c>
       <c r="D6">
         <v>1.036924576810224</v>
       </c>
       <c r="E6">
-        <v>0.9649079421380156</v>
+        <v>0.9649079421380169</v>
       </c>
       <c r="F6">
-        <v>0.9779556512865619</v>
+        <v>0.9779556512865626</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046945632960941</v>
       </c>
       <c r="J6">
-        <v>0.9747892240826347</v>
+        <v>0.9747892240826358</v>
       </c>
       <c r="K6">
         <v>1.046347001165437</v>
       </c>
       <c r="L6">
-        <v>0.9751738483389586</v>
+        <v>0.9751738483389599</v>
       </c>
       <c r="M6">
-        <v>0.9880572721032835</v>
+        <v>0.9880572721032844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9500250601934114</v>
+        <v>0.9500250601934113</v>
       </c>
       <c r="D7">
-        <v>1.035408070870503</v>
+        <v>1.035408070870502</v>
       </c>
       <c r="E7">
-        <v>0.9608522259895453</v>
+        <v>0.9608522259895452</v>
       </c>
       <c r="F7">
         <v>0.9736774549186841</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045886549120299</v>
+        <v>1.045886549120298</v>
       </c>
       <c r="J7">
-        <v>0.9707930833499894</v>
+        <v>0.970793083349989</v>
       </c>
       <c r="K7">
-        <v>1.045094273705252</v>
+        <v>1.045094273705251</v>
       </c>
       <c r="L7">
-        <v>0.9714441099041015</v>
+        <v>0.9714441099041013</v>
       </c>
       <c r="M7">
         <v>0.9841011939951119</v>
@@ -652,13 +652,13 @@
         <v>0.9290731800847217</v>
       </c>
       <c r="D8">
-        <v>1.028720837627831</v>
+        <v>1.028720837627832</v>
       </c>
       <c r="E8">
-        <v>0.9427804320262968</v>
+        <v>0.9427804320262966</v>
       </c>
       <c r="F8">
-        <v>0.9546463890609717</v>
+        <v>0.9546463890609715</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.9529599035653621</v>
       </c>
       <c r="K8">
-        <v>1.039525328295335</v>
+        <v>1.039525328295336</v>
       </c>
       <c r="L8">
-        <v>0.9547956258582799</v>
+        <v>0.9547956258582797</v>
       </c>
       <c r="M8">
-        <v>0.9664778891489395</v>
+        <v>0.9664778891489394</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8854081921311798</v>
+        <v>0.8854081921311787</v>
       </c>
       <c r="D9">
         <v>1.015231602816423</v>
       </c>
       <c r="E9">
-        <v>0.9052233086043433</v>
+        <v>0.9052233086043425</v>
       </c>
       <c r="F9">
-        <v>0.9152728851458174</v>
+        <v>0.9152728851458162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031219890853426</v>
+        <v>1.031219890853425</v>
       </c>
       <c r="J9">
-        <v>0.9157753908636749</v>
+        <v>0.915775390863674</v>
       </c>
       <c r="K9">
-        <v>1.028082298710406</v>
+        <v>1.028082298710405</v>
       </c>
       <c r="L9">
-        <v>0.9200671899073009</v>
+        <v>0.9200671899073001</v>
       </c>
       <c r="M9">
-        <v>0.9299084556038227</v>
+        <v>0.9299084556038215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.848903227189712</v>
+        <v>0.8489032271897138</v>
       </c>
       <c r="D10">
-        <v>1.004480006724683</v>
+        <v>1.004480006724684</v>
       </c>
       <c r="E10">
-        <v>0.8739725567319452</v>
+        <v>0.8739725567319465</v>
       </c>
       <c r="F10">
-        <v>0.8827116555437599</v>
+        <v>0.8827116555437616</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02298746203289</v>
       </c>
       <c r="J10">
-        <v>0.8847243765951807</v>
+        <v>0.8847243765951822</v>
       </c>
       <c r="K10">
-        <v>1.018768841658823</v>
+        <v>1.018768841658824</v>
       </c>
       <c r="L10">
-        <v>0.8910628163403308</v>
+        <v>0.8910628163403324</v>
       </c>
       <c r="M10">
-        <v>0.8995793503114843</v>
+        <v>0.8995793503114858</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8301097013062011</v>
+        <v>0.8301097013061999</v>
       </c>
       <c r="D11">
-        <v>0.999149301276714</v>
+        <v>0.9991493012767133</v>
       </c>
       <c r="E11">
-        <v>0.8579504060047586</v>
+        <v>0.8579504060047575</v>
       </c>
       <c r="F11">
-        <v>0.8660966224378056</v>
+        <v>0.8660966224378047</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018797755430669</v>
+        <v>1.018797755430668</v>
       </c>
       <c r="J11">
-        <v>0.8687688432414074</v>
+        <v>0.8687688432414061</v>
       </c>
       <c r="K11">
-        <v>1.014087278380947</v>
+        <v>1.014087278380946</v>
       </c>
       <c r="L11">
-        <v>0.8761608117514915</v>
+        <v>0.8761608117514902</v>
       </c>
       <c r="M11">
-        <v>0.8840785818138251</v>
+        <v>0.8840785818138241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,19 +798,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.8224780173192313</v>
+        <v>0.8224780173192333</v>
       </c>
       <c r="D12">
-        <v>0.9970261628324899</v>
+        <v>0.9970261628324902</v>
       </c>
       <c r="E12">
-        <v>0.8514588418229856</v>
+        <v>0.8514588418229875</v>
       </c>
       <c r="F12">
-        <v>0.8593813320092084</v>
+        <v>0.8593813320092095</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017108507985845</v>
       </c>
       <c r="J12">
-        <v>0.8622975061250182</v>
+        <v>0.8622975061250201</v>
       </c>
       <c r="K12">
         <v>1.012210559507208</v>
       </c>
       <c r="L12">
-        <v>0.87011755031467</v>
+        <v>0.8701175503146718</v>
       </c>
       <c r="M12">
-        <v>0.8778093644707581</v>
+        <v>0.8778093644707592</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8241494450761991</v>
+        <v>0.8241494450762</v>
       </c>
       <c r="D13">
-        <v>0.9974890682535402</v>
+        <v>0.9974890682535407</v>
       </c>
       <c r="E13">
-        <v>0.8528798054516286</v>
+        <v>0.8528798054516297</v>
       </c>
       <c r="F13">
-        <v>0.8608504279945471</v>
+        <v>0.8608504279945483</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017477827009376</v>
       </c>
       <c r="J13">
-        <v>0.8637143752231834</v>
+        <v>0.8637143752231842</v>
       </c>
       <c r="K13">
         <v>1.012620336178987</v>
       </c>
       <c r="L13">
-        <v>0.8714406474588823</v>
+        <v>0.8714406474588833</v>
       </c>
       <c r="M13">
-        <v>0.8791810772264179</v>
+        <v>0.8791810772264188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.829493854426</v>
+        <v>0.8294938544260001</v>
       </c>
       <c r="D14">
-        <v>0.9989770704424076</v>
+        <v>0.9989770704424078</v>
       </c>
       <c r="E14">
-        <v>0.8574262342719775</v>
+        <v>0.8574262342719776</v>
       </c>
       <c r="F14">
         <v>0.8655540235663889</v>
@@ -895,7 +895,7 @@
         <v>1.018661164025757</v>
       </c>
       <c r="J14">
-        <v>0.8682464493312664</v>
+        <v>0.8682464493312663</v>
       </c>
       <c r="K14">
         <v>1.013935297757818</v>
@@ -904,7 +904,7 @@
         <v>0.8756729544223986</v>
       </c>
       <c r="M14">
-        <v>0.8835721149521314</v>
+        <v>0.8835721149521315</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8326919343840029</v>
+        <v>0.8326919343840038</v>
       </c>
       <c r="D15">
-        <v>0.9998731740001522</v>
+        <v>0.9998731740001533</v>
       </c>
       <c r="E15">
-        <v>0.8601488611249496</v>
+        <v>0.8601488611249506</v>
       </c>
       <c r="F15">
-        <v>0.8683730469904182</v>
+        <v>0.8683730469904193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019370991409536</v>
+        <v>1.019370991409537</v>
       </c>
       <c r="J15">
-        <v>0.8709595652872568</v>
+        <v>0.8709595652872578</v>
       </c>
       <c r="K15">
-        <v>1.014725541560872</v>
+        <v>1.014725541560873</v>
       </c>
       <c r="L15">
-        <v>0.8782067349226049</v>
+        <v>0.8782067349226059</v>
       </c>
       <c r="M15">
-        <v>0.8862032448836238</v>
+        <v>0.8862032448836249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8500732536510445</v>
+        <v>0.8500732536510464</v>
       </c>
       <c r="D16">
-        <v>1.004816601833192</v>
+        <v>1.004816601833193</v>
       </c>
       <c r="E16">
-        <v>0.8749716549152073</v>
+        <v>0.874971654915209</v>
       </c>
       <c r="F16">
-        <v>0.8837495749051423</v>
+        <v>0.8837495749051438</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023249573554125</v>
       </c>
       <c r="J16">
-        <v>0.8857185300638752</v>
+        <v>0.8857185300638769</v>
       </c>
       <c r="K16">
         <v>1.019063008431218</v>
       </c>
       <c r="L16">
-        <v>0.8919913957598794</v>
+        <v>0.8919913957598812</v>
       </c>
       <c r="M16">
-        <v>0.9005471422760123</v>
+        <v>0.9005471422760136</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8600708332920249</v>
+        <v>0.8600708332920246</v>
       </c>
       <c r="D17">
         <v>1.007714795276721</v>
@@ -1000,7 +1000,7 @@
         <v>0.8835159046768183</v>
       </c>
       <c r="F17">
-        <v>0.8926343676147032</v>
+        <v>0.8926343676147034</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>1.025494626682712</v>
       </c>
       <c r="J17">
-        <v>0.894216663479627</v>
+        <v>0.8942166634796268</v>
       </c>
       <c r="K17">
         <v>1.021588894957014</v>
       </c>
       <c r="L17">
-        <v>0.8999292148225984</v>
+        <v>0.8999292148225985</v>
       </c>
       <c r="M17">
         <v>0.9088290012339946</v>
@@ -1035,10 +1035,10 @@
         <v>1.00934377038901</v>
       </c>
       <c r="E18">
-        <v>0.8882739521785147</v>
+        <v>0.8882739521785148</v>
       </c>
       <c r="F18">
-        <v>0.8975885545430136</v>
+        <v>0.8975885545430138</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026747259140998</v>
       </c>
       <c r="J18">
-        <v>0.8989460328281069</v>
+        <v>0.8989460328281071</v>
       </c>
       <c r="K18">
         <v>1.023003144034451</v>
       </c>
       <c r="L18">
-        <v>0.9043468819538937</v>
+        <v>0.9043468819538933</v>
       </c>
       <c r="M18">
-        <v>0.9134448842293075</v>
+        <v>0.9134448842293077</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8674864290555111</v>
+        <v>0.8674864290555101</v>
       </c>
       <c r="D19">
         <v>1.009889653527672</v>
       </c>
       <c r="E19">
-        <v>0.8898615108562589</v>
+        <v>0.8898615108562583</v>
       </c>
       <c r="F19">
-        <v>0.8992425701954538</v>
+        <v>0.8992425701954527</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027165547994941</v>
       </c>
       <c r="J19">
-        <v>0.900523540893938</v>
+        <v>0.9005235408939375</v>
       </c>
       <c r="K19">
         <v>1.023476194892557</v>
       </c>
       <c r="L19">
-        <v>0.9058204317373978</v>
+        <v>0.9058204317373971</v>
       </c>
       <c r="M19">
-        <v>0.9149856063535768</v>
+        <v>0.914985606353576</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8590272074020664</v>
+        <v>0.8590272074020689</v>
       </c>
       <c r="D20">
-        <v>1.007410426213954</v>
+        <v>1.007410426213955</v>
       </c>
       <c r="E20">
-        <v>0.882623398725623</v>
+        <v>0.8826233987256256</v>
       </c>
       <c r="F20">
-        <v>0.8917055826357213</v>
+        <v>0.8917055826357237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025259841424008</v>
+        <v>1.025259841424009</v>
       </c>
       <c r="J20">
-        <v>0.8933292969381009</v>
+        <v>0.8933292969381034</v>
       </c>
       <c r="K20">
-        <v>1.021324211850813</v>
+        <v>1.021324211850814</v>
       </c>
       <c r="L20">
-        <v>0.899100340432535</v>
+        <v>0.8991003404325373</v>
       </c>
       <c r="M20">
-        <v>0.907963469133264</v>
+        <v>0.9079634691332666</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8279404081736336</v>
+        <v>0.8279404081736349</v>
       </c>
       <c r="D21">
-        <v>0.9985433268208384</v>
+        <v>0.998543326820839</v>
       </c>
       <c r="E21">
-        <v>0.8561042874920115</v>
+        <v>0.8561042874920123</v>
       </c>
       <c r="F21">
-        <v>0.8641858844015752</v>
+        <v>0.8641858844015762</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.018316829925438</v>
       </c>
       <c r="J21">
-        <v>0.8669288733998139</v>
+        <v>0.8669288733998152</v>
       </c>
       <c r="K21">
-        <v>1.013552348973889</v>
+        <v>1.01355234897389</v>
       </c>
       <c r="L21">
-        <v>0.8744425008548345</v>
+        <v>0.8744425008548353</v>
       </c>
       <c r="M21">
-        <v>0.8822950110596225</v>
+        <v>0.8822950110596234</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8043801895601749</v>
+        <v>0.8043801895601759</v>
       </c>
       <c r="D22">
-        <v>0.9920900652047364</v>
+        <v>0.9920900652047359</v>
       </c>
       <c r="E22">
-        <v>0.8361019039996271</v>
+        <v>0.8361019039996277</v>
       </c>
       <c r="F22">
-        <v>0.8435353434860288</v>
+        <v>0.8435353434860295</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.013134474281792</v>
       </c>
       <c r="J22">
-        <v>0.8469728634720844</v>
+        <v>0.8469728634720853</v>
       </c>
       <c r="K22">
-        <v>1.007819865073073</v>
+        <v>1.007819865073072</v>
       </c>
       <c r="L22">
-        <v>0.8558091250202543</v>
+        <v>0.8558091250202552</v>
       </c>
       <c r="M22">
-        <v>0.8630067227754079</v>
+        <v>0.8630067227754086</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8173677332009381</v>
+        <v>0.8173677332009387</v>
       </c>
       <c r="D23">
-        <v>0.9956181761779128</v>
+        <v>0.9956181761779126</v>
       </c>
       <c r="E23">
-        <v>0.847117065020874</v>
+        <v>0.8471170650208745</v>
       </c>
       <c r="F23">
-        <v>0.8548954543556212</v>
+        <v>0.8548954543556218</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015981666906217</v>
       </c>
       <c r="J23">
-        <v>0.8579670823091091</v>
+        <v>0.8579670823091093</v>
       </c>
       <c r="K23">
         <v>1.010962103368501</v>
       </c>
       <c r="L23">
-        <v>0.8660739025405787</v>
+        <v>0.8660739025405788</v>
       </c>
       <c r="M23">
-        <v>0.8736201506007893</v>
+        <v>0.8736201506007896</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8594995994813209</v>
+        <v>0.8594995994813195</v>
       </c>
       <c r="D24">
         <v>1.007548144829397</v>
       </c>
       <c r="E24">
-        <v>0.8830273704307234</v>
+        <v>0.8830273704307221</v>
       </c>
       <c r="F24">
-        <v>0.8921259549851251</v>
+        <v>0.8921259549851236</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025366103993331</v>
       </c>
       <c r="J24">
-        <v>0.8937309517685649</v>
+        <v>0.8937309517685634</v>
       </c>
       <c r="K24">
         <v>1.021443990655498</v>
       </c>
       <c r="L24">
-        <v>0.8994755191984199</v>
+        <v>0.8994755191984186</v>
       </c>
       <c r="M24">
-        <v>0.908355219535983</v>
+        <v>0.9083552195359815</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8977222570648733</v>
+        <v>0.8977222570648723</v>
       </c>
       <c r="D25">
-        <v>1.018969970747592</v>
+        <v>1.018969970747591</v>
       </c>
       <c r="E25">
-        <v>0.9157978324621907</v>
+        <v>0.9157978324621899</v>
       </c>
       <c r="F25">
-        <v>0.9263334897483558</v>
+        <v>0.9263334897483554</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034015183669442</v>
       </c>
       <c r="J25">
-        <v>0.9262604565514233</v>
+        <v>0.9262604565514224</v>
       </c>
       <c r="K25">
         <v>1.031280770453976</v>
       </c>
       <c r="L25">
-        <v>0.9298609101562434</v>
+        <v>0.9298609101562427</v>
       </c>
       <c r="M25">
-        <v>0.940194240746535</v>
+        <v>0.9401942407465342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.923292806044796</v>
+        <v>0.9232928060447968</v>
       </c>
       <c r="D2">
         <v>1.026899028325532</v>
       </c>
       <c r="E2">
-        <v>0.9377996660950296</v>
+        <v>0.9377996660950302</v>
       </c>
       <c r="F2">
         <v>0.9494106650207615</v>
@@ -439,16 +439,16 @@
         <v>1.039828520297882</v>
       </c>
       <c r="J2">
-        <v>0.9480376807711932</v>
+        <v>0.9480376807711939</v>
       </c>
       <c r="K2">
         <v>1.037995917160359</v>
       </c>
       <c r="L2">
-        <v>0.9501994020289365</v>
+        <v>0.9501994020289369</v>
       </c>
       <c r="M2">
-        <v>0.961622873632432</v>
+        <v>0.9616228736324319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9399198499140545</v>
+        <v>0.9399198499140531</v>
       </c>
       <c r="D3">
-        <v>1.032166858519221</v>
+        <v>1.032166858519222</v>
       </c>
       <c r="E3">
-        <v>0.952132771036913</v>
+        <v>0.9521327710369114</v>
       </c>
       <c r="F3">
-        <v>0.9644885508600116</v>
+        <v>0.9644885508600105</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.043601721322534</v>
       </c>
       <c r="J3">
-        <v>0.962194058117232</v>
+        <v>0.9621940581172306</v>
       </c>
       <c r="K3">
-        <v>1.042404058948439</v>
+        <v>1.04240405894844</v>
       </c>
       <c r="L3">
-        <v>0.9634171142763245</v>
+        <v>0.963417114276323</v>
       </c>
       <c r="M3">
-        <v>0.975596917951095</v>
+        <v>0.9755969179510939</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.949970028010191</v>
+        <v>0.949970028010193</v>
       </c>
       <c r="D4">
         <v>1.035390342339696</v>
       </c>
       <c r="E4">
-        <v>0.9608047252749495</v>
+        <v>0.9608047252749513</v>
       </c>
       <c r="F4">
-        <v>0.9736273639114371</v>
+        <v>0.9736273639114391</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045874130067712</v>
+        <v>1.045874130067713</v>
       </c>
       <c r="J4">
-        <v>0.9707462666888979</v>
+        <v>0.9707462666888997</v>
       </c>
       <c r="K4">
-        <v>1.045079606022266</v>
+        <v>1.045079606022267</v>
       </c>
       <c r="L4">
-        <v>0.9714004120173331</v>
+        <v>0.9714004120173348</v>
       </c>
       <c r="M4">
-        <v>0.9840548614404626</v>
+        <v>0.9840548614404644</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9540468178910692</v>
+        <v>0.9540468178910663</v>
       </c>
       <c r="D5">
         <v>1.036705892821996</v>
       </c>
       <c r="E5">
-        <v>0.9643240037291468</v>
+        <v>0.9643240037291438</v>
       </c>
       <c r="F5">
-        <v>0.9773395205717208</v>
+        <v>0.9773395205717185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046793308613809</v>
+        <v>1.046793308613808</v>
       </c>
       <c r="J5">
-        <v>0.9742140071187083</v>
+        <v>0.9742140071187056</v>
       </c>
       <c r="K5">
-        <v>1.046166594186879</v>
+        <v>1.046166594186878</v>
       </c>
       <c r="L5">
-        <v>0.974637002079227</v>
+        <v>0.9746370020792242</v>
       </c>
       <c r="M5">
-        <v>0.9874876692099313</v>
+        <v>0.9874876692099289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9547231686015258</v>
+        <v>0.9547231686015247</v>
       </c>
       <c r="D6">
         <v>1.036924576810224</v>
       </c>
       <c r="E6">
-        <v>0.9649079421380169</v>
+        <v>0.9649079421380156</v>
       </c>
       <c r="F6">
-        <v>0.9779556512865626</v>
+        <v>0.9779556512865619</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046945632960941</v>
       </c>
       <c r="J6">
-        <v>0.9747892240826358</v>
+        <v>0.9747892240826347</v>
       </c>
       <c r="K6">
         <v>1.046347001165437</v>
       </c>
       <c r="L6">
-        <v>0.9751738483389599</v>
+        <v>0.9751738483389586</v>
       </c>
       <c r="M6">
-        <v>0.9880572721032844</v>
+        <v>0.9880572721032835</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9500250601934113</v>
+        <v>0.9500250601934114</v>
       </c>
       <c r="D7">
-        <v>1.035408070870502</v>
+        <v>1.035408070870503</v>
       </c>
       <c r="E7">
-        <v>0.9608522259895452</v>
+        <v>0.9608522259895453</v>
       </c>
       <c r="F7">
         <v>0.9736774549186841</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045886549120298</v>
+        <v>1.045886549120299</v>
       </c>
       <c r="J7">
-        <v>0.970793083349989</v>
+        <v>0.9707930833499894</v>
       </c>
       <c r="K7">
-        <v>1.045094273705251</v>
+        <v>1.045094273705252</v>
       </c>
       <c r="L7">
-        <v>0.9714441099041013</v>
+        <v>0.9714441099041015</v>
       </c>
       <c r="M7">
         <v>0.9841011939951119</v>
@@ -652,13 +652,13 @@
         <v>0.9290731800847217</v>
       </c>
       <c r="D8">
-        <v>1.028720837627832</v>
+        <v>1.028720837627831</v>
       </c>
       <c r="E8">
-        <v>0.9427804320262966</v>
+        <v>0.9427804320262968</v>
       </c>
       <c r="F8">
-        <v>0.9546463890609715</v>
+        <v>0.9546463890609717</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.9529599035653621</v>
       </c>
       <c r="K8">
-        <v>1.039525328295336</v>
+        <v>1.039525328295335</v>
       </c>
       <c r="L8">
-        <v>0.9547956258582797</v>
+        <v>0.9547956258582799</v>
       </c>
       <c r="M8">
-        <v>0.9664778891489394</v>
+        <v>0.9664778891489395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8854081921311787</v>
+        <v>0.8854081921311798</v>
       </c>
       <c r="D9">
         <v>1.015231602816423</v>
       </c>
       <c r="E9">
-        <v>0.9052233086043425</v>
+        <v>0.9052233086043433</v>
       </c>
       <c r="F9">
-        <v>0.9152728851458162</v>
+        <v>0.9152728851458174</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031219890853425</v>
+        <v>1.031219890853426</v>
       </c>
       <c r="J9">
-        <v>0.915775390863674</v>
+        <v>0.9157753908636749</v>
       </c>
       <c r="K9">
-        <v>1.028082298710405</v>
+        <v>1.028082298710406</v>
       </c>
       <c r="L9">
-        <v>0.9200671899073001</v>
+        <v>0.9200671899073009</v>
       </c>
       <c r="M9">
-        <v>0.9299084556038215</v>
+        <v>0.9299084556038227</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8489032271897138</v>
+        <v>0.848903227189712</v>
       </c>
       <c r="D10">
-        <v>1.004480006724684</v>
+        <v>1.004480006724683</v>
       </c>
       <c r="E10">
-        <v>0.8739725567319465</v>
+        <v>0.8739725567319452</v>
       </c>
       <c r="F10">
-        <v>0.8827116555437616</v>
+        <v>0.8827116555437599</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02298746203289</v>
       </c>
       <c r="J10">
-        <v>0.8847243765951822</v>
+        <v>0.8847243765951807</v>
       </c>
       <c r="K10">
-        <v>1.018768841658824</v>
+        <v>1.018768841658823</v>
       </c>
       <c r="L10">
-        <v>0.8910628163403324</v>
+        <v>0.8910628163403308</v>
       </c>
       <c r="M10">
-        <v>0.8995793503114858</v>
+        <v>0.8995793503114843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8301097013061999</v>
+        <v>0.8301097013062011</v>
       </c>
       <c r="D11">
-        <v>0.9991493012767133</v>
+        <v>0.999149301276714</v>
       </c>
       <c r="E11">
-        <v>0.8579504060047575</v>
+        <v>0.8579504060047586</v>
       </c>
       <c r="F11">
-        <v>0.8660966224378047</v>
+        <v>0.8660966224378056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018797755430668</v>
+        <v>1.018797755430669</v>
       </c>
       <c r="J11">
-        <v>0.8687688432414061</v>
+        <v>0.8687688432414074</v>
       </c>
       <c r="K11">
-        <v>1.014087278380946</v>
+        <v>1.014087278380947</v>
       </c>
       <c r="L11">
-        <v>0.8761608117514902</v>
+        <v>0.8761608117514915</v>
       </c>
       <c r="M11">
-        <v>0.8840785818138241</v>
+        <v>0.8840785818138251</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,19 +798,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8224780173192333</v>
+        <v>0.8224780173192313</v>
       </c>
       <c r="D12">
-        <v>0.9970261628324902</v>
+        <v>0.9970261628324899</v>
       </c>
       <c r="E12">
-        <v>0.8514588418229875</v>
+        <v>0.8514588418229856</v>
       </c>
       <c r="F12">
-        <v>0.8593813320092095</v>
+        <v>0.8593813320092084</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.017108507985845</v>
       </c>
       <c r="J12">
-        <v>0.8622975061250201</v>
+        <v>0.8622975061250182</v>
       </c>
       <c r="K12">
         <v>1.012210559507208</v>
       </c>
       <c r="L12">
-        <v>0.8701175503146718</v>
+        <v>0.87011755031467</v>
       </c>
       <c r="M12">
-        <v>0.8778093644707592</v>
+        <v>0.8778093644707581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8241494450762</v>
+        <v>0.8241494450761991</v>
       </c>
       <c r="D13">
-        <v>0.9974890682535407</v>
+        <v>0.9974890682535402</v>
       </c>
       <c r="E13">
-        <v>0.8528798054516297</v>
+        <v>0.8528798054516286</v>
       </c>
       <c r="F13">
-        <v>0.8608504279945483</v>
+        <v>0.8608504279945471</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017477827009376</v>
       </c>
       <c r="J13">
-        <v>0.8637143752231842</v>
+        <v>0.8637143752231834</v>
       </c>
       <c r="K13">
         <v>1.012620336178987</v>
       </c>
       <c r="L13">
-        <v>0.8714406474588833</v>
+        <v>0.8714406474588823</v>
       </c>
       <c r="M13">
-        <v>0.8791810772264188</v>
+        <v>0.8791810772264179</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8294938544260001</v>
+        <v>0.829493854426</v>
       </c>
       <c r="D14">
-        <v>0.9989770704424078</v>
+        <v>0.9989770704424076</v>
       </c>
       <c r="E14">
-        <v>0.8574262342719776</v>
+        <v>0.8574262342719775</v>
       </c>
       <c r="F14">
         <v>0.8655540235663889</v>
@@ -895,7 +895,7 @@
         <v>1.018661164025757</v>
       </c>
       <c r="J14">
-        <v>0.8682464493312663</v>
+        <v>0.8682464493312664</v>
       </c>
       <c r="K14">
         <v>1.013935297757818</v>
@@ -904,7 +904,7 @@
         <v>0.8756729544223986</v>
       </c>
       <c r="M14">
-        <v>0.8835721149521315</v>
+        <v>0.8835721149521314</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8326919343840038</v>
+        <v>0.8326919343840029</v>
       </c>
       <c r="D15">
-        <v>0.9998731740001533</v>
+        <v>0.9998731740001522</v>
       </c>
       <c r="E15">
-        <v>0.8601488611249506</v>
+        <v>0.8601488611249496</v>
       </c>
       <c r="F15">
-        <v>0.8683730469904193</v>
+        <v>0.8683730469904182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019370991409537</v>
+        <v>1.019370991409536</v>
       </c>
       <c r="J15">
-        <v>0.8709595652872578</v>
+        <v>0.8709595652872568</v>
       </c>
       <c r="K15">
-        <v>1.014725541560873</v>
+        <v>1.014725541560872</v>
       </c>
       <c r="L15">
-        <v>0.8782067349226059</v>
+        <v>0.8782067349226049</v>
       </c>
       <c r="M15">
-        <v>0.8862032448836249</v>
+        <v>0.8862032448836238</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8500732536510464</v>
+        <v>0.8500732536510445</v>
       </c>
       <c r="D16">
-        <v>1.004816601833193</v>
+        <v>1.004816601833192</v>
       </c>
       <c r="E16">
-        <v>0.874971654915209</v>
+        <v>0.8749716549152073</v>
       </c>
       <c r="F16">
-        <v>0.8837495749051438</v>
+        <v>0.8837495749051423</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023249573554125</v>
       </c>
       <c r="J16">
-        <v>0.8857185300638769</v>
+        <v>0.8857185300638752</v>
       </c>
       <c r="K16">
         <v>1.019063008431218</v>
       </c>
       <c r="L16">
-        <v>0.8919913957598812</v>
+        <v>0.8919913957598794</v>
       </c>
       <c r="M16">
-        <v>0.9005471422760136</v>
+        <v>0.9005471422760123</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8600708332920246</v>
+        <v>0.8600708332920249</v>
       </c>
       <c r="D17">
         <v>1.007714795276721</v>
@@ -1000,7 +1000,7 @@
         <v>0.8835159046768183</v>
       </c>
       <c r="F17">
-        <v>0.8926343676147034</v>
+        <v>0.8926343676147032</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>1.025494626682712</v>
       </c>
       <c r="J17">
-        <v>0.8942166634796268</v>
+        <v>0.894216663479627</v>
       </c>
       <c r="K17">
         <v>1.021588894957014</v>
       </c>
       <c r="L17">
-        <v>0.8999292148225985</v>
+        <v>0.8999292148225984</v>
       </c>
       <c r="M17">
         <v>0.9088290012339946</v>
@@ -1035,10 +1035,10 @@
         <v>1.00934377038901</v>
       </c>
       <c r="E18">
-        <v>0.8882739521785148</v>
+        <v>0.8882739521785147</v>
       </c>
       <c r="F18">
-        <v>0.8975885545430138</v>
+        <v>0.8975885545430136</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026747259140998</v>
       </c>
       <c r="J18">
-        <v>0.8989460328281071</v>
+        <v>0.8989460328281069</v>
       </c>
       <c r="K18">
         <v>1.023003144034451</v>
       </c>
       <c r="L18">
-        <v>0.9043468819538933</v>
+        <v>0.9043468819538937</v>
       </c>
       <c r="M18">
-        <v>0.9134448842293077</v>
+        <v>0.9134448842293075</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8674864290555101</v>
+        <v>0.8674864290555111</v>
       </c>
       <c r="D19">
         <v>1.009889653527672</v>
       </c>
       <c r="E19">
-        <v>0.8898615108562583</v>
+        <v>0.8898615108562589</v>
       </c>
       <c r="F19">
-        <v>0.8992425701954527</v>
+        <v>0.8992425701954538</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027165547994941</v>
       </c>
       <c r="J19">
-        <v>0.9005235408939375</v>
+        <v>0.900523540893938</v>
       </c>
       <c r="K19">
         <v>1.023476194892557</v>
       </c>
       <c r="L19">
-        <v>0.9058204317373971</v>
+        <v>0.9058204317373978</v>
       </c>
       <c r="M19">
-        <v>0.914985606353576</v>
+        <v>0.9149856063535768</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8590272074020689</v>
+        <v>0.8590272074020664</v>
       </c>
       <c r="D20">
-        <v>1.007410426213955</v>
+        <v>1.007410426213954</v>
       </c>
       <c r="E20">
-        <v>0.8826233987256256</v>
+        <v>0.882623398725623</v>
       </c>
       <c r="F20">
-        <v>0.8917055826357237</v>
+        <v>0.8917055826357213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025259841424009</v>
+        <v>1.025259841424008</v>
       </c>
       <c r="J20">
-        <v>0.8933292969381034</v>
+        <v>0.8933292969381009</v>
       </c>
       <c r="K20">
-        <v>1.021324211850814</v>
+        <v>1.021324211850813</v>
       </c>
       <c r="L20">
-        <v>0.8991003404325373</v>
+        <v>0.899100340432535</v>
       </c>
       <c r="M20">
-        <v>0.9079634691332666</v>
+        <v>0.907963469133264</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8279404081736349</v>
+        <v>0.8279404081736336</v>
       </c>
       <c r="D21">
-        <v>0.998543326820839</v>
+        <v>0.9985433268208384</v>
       </c>
       <c r="E21">
-        <v>0.8561042874920123</v>
+        <v>0.8561042874920115</v>
       </c>
       <c r="F21">
-        <v>0.8641858844015762</v>
+        <v>0.8641858844015752</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.018316829925438</v>
       </c>
       <c r="J21">
-        <v>0.8669288733998152</v>
+        <v>0.8669288733998139</v>
       </c>
       <c r="K21">
-        <v>1.01355234897389</v>
+        <v>1.013552348973889</v>
       </c>
       <c r="L21">
-        <v>0.8744425008548353</v>
+        <v>0.8744425008548345</v>
       </c>
       <c r="M21">
-        <v>0.8822950110596234</v>
+        <v>0.8822950110596225</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8043801895601759</v>
+        <v>0.8043801895601749</v>
       </c>
       <c r="D22">
-        <v>0.9920900652047359</v>
+        <v>0.9920900652047364</v>
       </c>
       <c r="E22">
-        <v>0.8361019039996277</v>
+        <v>0.8361019039996271</v>
       </c>
       <c r="F22">
-        <v>0.8435353434860295</v>
+        <v>0.8435353434860288</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.013134474281792</v>
       </c>
       <c r="J22">
-        <v>0.8469728634720853</v>
+        <v>0.8469728634720844</v>
       </c>
       <c r="K22">
-        <v>1.007819865073072</v>
+        <v>1.007819865073073</v>
       </c>
       <c r="L22">
-        <v>0.8558091250202552</v>
+        <v>0.8558091250202543</v>
       </c>
       <c r="M22">
-        <v>0.8630067227754086</v>
+        <v>0.8630067227754079</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8173677332009387</v>
+        <v>0.8173677332009381</v>
       </c>
       <c r="D23">
-        <v>0.9956181761779126</v>
+        <v>0.9956181761779128</v>
       </c>
       <c r="E23">
-        <v>0.8471170650208745</v>
+        <v>0.847117065020874</v>
       </c>
       <c r="F23">
-        <v>0.8548954543556218</v>
+        <v>0.8548954543556212</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015981666906217</v>
       </c>
       <c r="J23">
-        <v>0.8579670823091093</v>
+        <v>0.8579670823091091</v>
       </c>
       <c r="K23">
         <v>1.010962103368501</v>
       </c>
       <c r="L23">
-        <v>0.8660739025405788</v>
+        <v>0.8660739025405787</v>
       </c>
       <c r="M23">
-        <v>0.8736201506007896</v>
+        <v>0.8736201506007893</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8594995994813195</v>
+        <v>0.8594995994813209</v>
       </c>
       <c r="D24">
         <v>1.007548144829397</v>
       </c>
       <c r="E24">
-        <v>0.8830273704307221</v>
+        <v>0.8830273704307234</v>
       </c>
       <c r="F24">
-        <v>0.8921259549851236</v>
+        <v>0.8921259549851251</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025366103993331</v>
       </c>
       <c r="J24">
-        <v>0.8937309517685634</v>
+        <v>0.8937309517685649</v>
       </c>
       <c r="K24">
         <v>1.021443990655498</v>
       </c>
       <c r="L24">
-        <v>0.8994755191984186</v>
+        <v>0.8994755191984199</v>
       </c>
       <c r="M24">
-        <v>0.9083552195359815</v>
+        <v>0.908355219535983</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8977222570648723</v>
+        <v>0.8977222570648733</v>
       </c>
       <c r="D25">
-        <v>1.018969970747591</v>
+        <v>1.018969970747592</v>
       </c>
       <c r="E25">
-        <v>0.9157978324621899</v>
+        <v>0.9157978324621907</v>
       </c>
       <c r="F25">
-        <v>0.9263334897483554</v>
+        <v>0.9263334897483558</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.034015183669442</v>
       </c>
       <c r="J25">
-        <v>0.9262604565514224</v>
+        <v>0.9262604565514233</v>
       </c>
       <c r="K25">
         <v>1.031280770453976</v>
       </c>
       <c r="L25">
-        <v>0.9298609101562427</v>
+        <v>0.9298609101562434</v>
       </c>
       <c r="M25">
-        <v>0.9401942407465342</v>
+        <v>0.940194240746535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9232928060447968</v>
+        <v>0.9278369870246658</v>
       </c>
       <c r="D2">
-        <v>1.026899028325532</v>
+        <v>1.027822992628431</v>
       </c>
       <c r="E2">
-        <v>0.9377996660950302</v>
+        <v>0.9417118090010427</v>
       </c>
       <c r="F2">
-        <v>0.9494106650207615</v>
+        <v>0.9528689131124847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039828520297882</v>
+        <v>1.040726615224262</v>
       </c>
       <c r="J2">
-        <v>0.9480376807711939</v>
+        <v>0.9524133112841453</v>
       </c>
       <c r="K2">
-        <v>1.037995917160359</v>
+        <v>1.038907853759516</v>
       </c>
       <c r="L2">
-        <v>0.9501994020289369</v>
+        <v>0.9540476971645568</v>
       </c>
       <c r="M2">
-        <v>0.9616228736324319</v>
+        <v>0.9650263987137134</v>
+      </c>
+      <c r="N2">
+        <v>0.9537658474295023</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9399198499140531</v>
+        <v>0.9443651767159504</v>
       </c>
       <c r="D3">
-        <v>1.032166858519222</v>
+        <v>1.033069400850342</v>
       </c>
       <c r="E3">
-        <v>0.9521327710369114</v>
+        <v>0.9559653317069032</v>
       </c>
       <c r="F3">
-        <v>0.9644885508600105</v>
+        <v>0.9678609445624727</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043601721322534</v>
+        <v>1.044480877888135</v>
       </c>
       <c r="J3">
-        <v>0.9621940581172306</v>
+        <v>0.966496638188967</v>
       </c>
       <c r="K3">
-        <v>1.04240405894844</v>
+        <v>1.043295939507012</v>
       </c>
       <c r="L3">
-        <v>0.963417114276323</v>
+        <v>0.9671944739120462</v>
       </c>
       <c r="M3">
-        <v>0.9755969179510939</v>
+        <v>0.9789222654299472</v>
+      </c>
+      <c r="N3">
+        <v>0.9678691742739092</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.949970028010193</v>
+        <v>0.9543635234406849</v>
       </c>
       <c r="D4">
-        <v>1.035390342339696</v>
+        <v>1.036281549706526</v>
       </c>
       <c r="E4">
-        <v>0.9608047252749513</v>
+        <v>0.9645957198908134</v>
       </c>
       <c r="F4">
-        <v>0.9736273639114391</v>
+        <v>0.9769542621019938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045874130067713</v>
+        <v>1.046743401961411</v>
       </c>
       <c r="J4">
-        <v>0.9707462666888997</v>
+        <v>0.9750113194623217</v>
       </c>
       <c r="K4">
-        <v>1.045079606022267</v>
+        <v>1.045960953485872</v>
       </c>
       <c r="L4">
-        <v>0.9714004120173348</v>
+        <v>0.9751410978131756</v>
       </c>
       <c r="M4">
-        <v>0.9840548614404644</v>
+        <v>0.9873390237704672</v>
+      </c>
+      <c r="N4">
+        <v>0.9763959473713197</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9540468178910663</v>
+        <v>0.9584208472028861</v>
       </c>
       <c r="D5">
-        <v>1.036705892821996</v>
+        <v>1.037592823380383</v>
       </c>
       <c r="E5">
-        <v>0.9643240037291438</v>
+        <v>0.9680994280360559</v>
       </c>
       <c r="F5">
-        <v>0.9773395205717185</v>
+        <v>0.9806492268067648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046793308613808</v>
+        <v>1.047658882571112</v>
       </c>
       <c r="J5">
-        <v>0.9742140071187056</v>
+        <v>0.9784651462709608</v>
       </c>
       <c r="K5">
-        <v>1.046166594186878</v>
+        <v>1.047043985820748</v>
       </c>
       <c r="L5">
-        <v>0.9746370020792242</v>
+        <v>0.9783640381148606</v>
       </c>
       <c r="M5">
-        <v>0.9874876692099289</v>
+        <v>0.9907563247940625</v>
+      </c>
+      <c r="N5">
+        <v>0.9798546790101866</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9547231686015247</v>
+        <v>0.9590940520818643</v>
       </c>
       <c r="D6">
-        <v>1.036924576810224</v>
+        <v>1.037810815173377</v>
       </c>
       <c r="E6">
-        <v>0.9649079421380156</v>
+        <v>0.9686808526581978</v>
       </c>
       <c r="F6">
-        <v>0.9779556512865619</v>
+        <v>0.9812625732014844</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046945632960941</v>
+        <v>1.047810610269964</v>
       </c>
       <c r="J6">
-        <v>0.9747892240826347</v>
+        <v>0.9790381253023505</v>
       </c>
       <c r="K6">
-        <v>1.046347001165437</v>
+        <v>1.047223753635643</v>
       </c>
       <c r="L6">
-        <v>0.9751738483389586</v>
+        <v>0.9788986858349845</v>
       </c>
       <c r="M6">
-        <v>0.9880572721032835</v>
+        <v>0.9913234196027126</v>
+      </c>
+      <c r="N6">
+        <v>0.9804284717375222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9500250601934114</v>
+        <v>0.9544182870230414</v>
       </c>
       <c r="D7">
-        <v>1.035408070870503</v>
+        <v>1.036299219299198</v>
       </c>
       <c r="E7">
-        <v>0.9608522259895453</v>
+        <v>0.9646430055914622</v>
       </c>
       <c r="F7">
-        <v>0.9736774549186841</v>
+        <v>0.9770041163089641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045886549120299</v>
+        <v>1.046755769924483</v>
       </c>
       <c r="J7">
-        <v>0.9707930833499894</v>
+        <v>0.9750579434033119</v>
       </c>
       <c r="K7">
-        <v>1.045094273705252</v>
+        <v>1.045975566579134</v>
       </c>
       <c r="L7">
-        <v>0.9714441099041015</v>
+        <v>0.9751846068478832</v>
       </c>
       <c r="M7">
-        <v>0.9841011939951119</v>
+        <v>0.9873851425075855</v>
+      </c>
+      <c r="N7">
+        <v>0.976442637523654</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9290731800847217</v>
+        <v>0.9335810259730931</v>
       </c>
       <c r="D8">
-        <v>1.028720837627831</v>
+        <v>1.029636956221496</v>
       </c>
       <c r="E8">
-        <v>0.9427804320262968</v>
+        <v>0.9466632866920627</v>
       </c>
       <c r="F8">
-        <v>0.9546463890609717</v>
+        <v>0.9580732023832841</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041141637100602</v>
+        <v>1.042032762855313</v>
       </c>
       <c r="J8">
-        <v>0.9529599035653621</v>
+        <v>0.9573084944553529</v>
       </c>
       <c r="K8">
-        <v>1.039525328295335</v>
+        <v>1.040429900249553</v>
       </c>
       <c r="L8">
-        <v>0.9547956258582799</v>
+        <v>0.958617723226571</v>
       </c>
       <c r="M8">
-        <v>0.9664778891489395</v>
+        <v>0.9698527314819764</v>
+      </c>
+      <c r="N8">
+        <v>0.9586679823222984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8854081921311798</v>
+        <v>0.8902528531581826</v>
       </c>
       <c r="D9">
-        <v>1.015231602816423</v>
+        <v>1.016219434382657</v>
       </c>
       <c r="E9">
-        <v>0.9052233086043433</v>
+        <v>0.9093785236602625</v>
       </c>
       <c r="F9">
-        <v>0.9152728851458174</v>
+        <v>0.9189872280940196</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031219890853426</v>
+        <v>1.032175658384213</v>
       </c>
       <c r="J9">
-        <v>0.9157753908636749</v>
+        <v>0.9203800406327398</v>
       </c>
       <c r="K9">
-        <v>1.028082298710406</v>
+        <v>1.029054731559233</v>
       </c>
       <c r="L9">
-        <v>0.9200671899073009</v>
+        <v>0.9241355367804359</v>
       </c>
       <c r="M9">
-        <v>0.9299084556038227</v>
+        <v>0.933547324895423</v>
+      </c>
+      <c r="N9">
+        <v>0.9216870858595048</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.848903227189712</v>
+        <v>0.8541767153049522</v>
       </c>
       <c r="D10">
-        <v>1.004480006724683</v>
+        <v>1.005556831747196</v>
       </c>
       <c r="E10">
-        <v>0.8739725567319452</v>
+        <v>0.8784755834993103</v>
       </c>
       <c r="F10">
-        <v>0.8827116555437599</v>
+        <v>0.8867840955250587</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02298746203289</v>
+        <v>1.024025156603807</v>
       </c>
       <c r="J10">
-        <v>0.8847243765951807</v>
+        <v>0.889664818507242</v>
       </c>
       <c r="K10">
-        <v>1.018768841658823</v>
+        <v>1.019826475500316</v>
       </c>
       <c r="L10">
-        <v>0.8910628163403308</v>
+        <v>0.8954504139280759</v>
       </c>
       <c r="M10">
-        <v>0.8995793503114843</v>
+        <v>0.9035500933666396</v>
+      </c>
+      <c r="N10">
+        <v>0.8909282445955032</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8301097013062011</v>
+        <v>0.835682623083242</v>
       </c>
       <c r="D11">
-        <v>0.999149301276714</v>
+        <v>1.000287319398585</v>
       </c>
       <c r="E11">
-        <v>0.8579504060047586</v>
+        <v>0.8626963520619051</v>
       </c>
       <c r="F11">
-        <v>0.8660966224378056</v>
+        <v>0.8704160230641764</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018797755430669</v>
+        <v>1.019892342034545</v>
       </c>
       <c r="J11">
-        <v>0.8687688432414074</v>
+        <v>0.8739468895357325</v>
       </c>
       <c r="K11">
-        <v>1.014087278380947</v>
+        <v>1.015203819329949</v>
       </c>
       <c r="L11">
-        <v>0.8761608117514915</v>
+        <v>0.8807729497316249</v>
       </c>
       <c r="M11">
-        <v>0.8840785818138251</v>
+        <v>0.8882792141360969</v>
+      </c>
+      <c r="N11">
+        <v>0.8751879943619826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8224780173192313</v>
+        <v>0.8281929943659914</v>
       </c>
       <c r="D12">
-        <v>0.9970261628324899</v>
+        <v>0.9981930179686098</v>
       </c>
       <c r="E12">
-        <v>0.8514588418229856</v>
+        <v>0.8563200031055183</v>
       </c>
       <c r="F12">
-        <v>0.8593813320092084</v>
+        <v>0.8638172640366089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017108507985845</v>
+        <v>1.01823000675258</v>
       </c>
       <c r="J12">
-        <v>0.8622975061250182</v>
+        <v>0.8675888404554228</v>
       </c>
       <c r="K12">
-        <v>1.012210559507208</v>
+        <v>1.013354918976805</v>
       </c>
       <c r="L12">
-        <v>0.87011755031467</v>
+        <v>0.8748364773602579</v>
       </c>
       <c r="M12">
-        <v>0.8778093644707581</v>
+        <v>0.8821186629675392</v>
+      </c>
+      <c r="N12">
+        <v>0.8688209161227004</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8241494450761991</v>
+        <v>0.8298321648149514</v>
       </c>
       <c r="D13">
-        <v>0.9974890682535402</v>
+        <v>0.9986493846760075</v>
       </c>
       <c r="E13">
-        <v>0.8528798054516286</v>
+        <v>0.8577148063020997</v>
       </c>
       <c r="F13">
-        <v>0.8608504279945471</v>
+        <v>0.8652599295329876</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017477827009376</v>
+        <v>1.018593218718977</v>
       </c>
       <c r="J13">
-        <v>0.8637143752231834</v>
+        <v>0.8689799581601295</v>
       </c>
       <c r="K13">
-        <v>1.012620336178987</v>
+        <v>1.013758385112009</v>
       </c>
       <c r="L13">
-        <v>0.8714406474588823</v>
+        <v>0.8761353135093474</v>
       </c>
       <c r="M13">
-        <v>0.8791810772264179</v>
+        <v>0.8834657200804482</v>
+      </c>
+      <c r="N13">
+        <v>0.8702140093741111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.829493854426</v>
+        <v>0.8350777565867128</v>
       </c>
       <c r="D14">
-        <v>0.9989770704424076</v>
+        <v>1.00011732154403</v>
       </c>
       <c r="E14">
-        <v>0.8574262342719775</v>
+        <v>0.8621810869068008</v>
       </c>
       <c r="F14">
-        <v>0.8655540235663889</v>
+        <v>0.8698824446516413</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018661164025757</v>
+        <v>1.019757832525609</v>
       </c>
       <c r="J14">
-        <v>0.8682464493312664</v>
+        <v>0.8734332412000095</v>
       </c>
       <c r="K14">
-        <v>1.013935297757818</v>
+        <v>1.01505399164854</v>
       </c>
       <c r="L14">
-        <v>0.8756729544223986</v>
+        <v>0.8802933417820465</v>
       </c>
       <c r="M14">
-        <v>0.8835721149521314</v>
+        <v>0.8877811550726026</v>
+      </c>
+      <c r="N14">
+        <v>0.8746736165867067</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8326919343840029</v>
+        <v>0.8382196900660996</v>
       </c>
       <c r="D15">
-        <v>0.9998731740001522</v>
+        <v>1.001001999647333</v>
       </c>
       <c r="E15">
-        <v>0.8601488611249496</v>
+        <v>0.8648581700340807</v>
       </c>
       <c r="F15">
-        <v>0.8683730469904182</v>
+        <v>0.8726553190820711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019370991409536</v>
+        <v>1.020457011381079</v>
       </c>
       <c r="J15">
-        <v>0.8709595652872568</v>
+        <v>0.8761016594174974</v>
       </c>
       <c r="K15">
-        <v>1.014725541560872</v>
+        <v>1.015833221760526</v>
       </c>
       <c r="L15">
-        <v>0.8782067349226049</v>
+        <v>0.8827849501934865</v>
       </c>
       <c r="M15">
-        <v>0.8862032448836238</v>
+        <v>0.8903692776622938</v>
+      </c>
+      <c r="N15">
+        <v>0.8773458242641353</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,40 +992,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8500732536510445</v>
+        <v>0.8553301611169896</v>
       </c>
       <c r="D16">
-        <v>1.004816601833192</v>
+        <v>1.005890019332884</v>
       </c>
       <c r="E16">
-        <v>0.8749716549152073</v>
+        <v>0.8794612292663981</v>
       </c>
       <c r="F16">
-        <v>0.8837495749051423</v>
+        <v>0.8878082781226682</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023249573554125</v>
+        <v>1.024284110669407</v>
       </c>
       <c r="J16">
-        <v>0.8857185300638752</v>
+        <v>0.89064587352028</v>
       </c>
       <c r="K16">
-        <v>1.019063008431218</v>
+        <v>1.020117368133023</v>
       </c>
       <c r="L16">
-        <v>0.8919913957598794</v>
+        <v>0.8963665884162237</v>
       </c>
       <c r="M16">
-        <v>0.9005471422760123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9045051175340977</v>
+      </c>
+      <c r="N16">
+        <v>0.8919106928191883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8600708332920249</v>
+        <v>0.8651945888796926</v>
       </c>
       <c r="D17">
-        <v>1.007714795276721</v>
+        <v>1.008760762487153</v>
       </c>
       <c r="E17">
-        <v>0.8835159046768183</v>
+        <v>0.8878974518584627</v>
       </c>
       <c r="F17">
-        <v>0.8926343676147032</v>
+        <v>0.8965824782617001</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025494626682712</v>
+        <v>1.0265037783074</v>
       </c>
       <c r="J17">
-        <v>0.894216663479627</v>
+        <v>0.8990390988261877</v>
       </c>
       <c r="K17">
-        <v>1.021588894957014</v>
+        <v>1.02261690788626</v>
       </c>
       <c r="L17">
-        <v>0.8999292148225984</v>
+        <v>0.9042049322288047</v>
       </c>
       <c r="M17">
-        <v>0.9088290012339946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9126842762180385</v>
+      </c>
+      <c r="N17">
+        <v>0.9003158374677469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8656318988151886</v>
+        <v>0.8706877140833593</v>
       </c>
       <c r="D18">
-        <v>1.00934377038901</v>
+        <v>1.010375666719565</v>
       </c>
       <c r="E18">
-        <v>0.8882739521785147</v>
+        <v>0.8926003849650103</v>
       </c>
       <c r="F18">
-        <v>0.8975885545430136</v>
+        <v>0.9014800261216007</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026747259140998</v>
+        <v>1.027743437256031</v>
       </c>
       <c r="J18">
-        <v>0.8989460328281069</v>
+        <v>0.9037151563503315</v>
       </c>
       <c r="K18">
-        <v>1.023003144034451</v>
+        <v>1.024017674216077</v>
       </c>
       <c r="L18">
-        <v>0.9043468819538937</v>
+        <v>0.9085719563171001</v>
       </c>
       <c r="M18">
-        <v>0.9134448842293075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9172476324454657</v>
+      </c>
+      <c r="N18">
+        <v>0.904998535529926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8674864290555111</v>
+        <v>0.8725204874569239</v>
       </c>
       <c r="D19">
-        <v>1.009889653527672</v>
+        <v>1.010917033761679</v>
       </c>
       <c r="E19">
-        <v>0.8898615108562589</v>
+        <v>0.8941702956644462</v>
       </c>
       <c r="F19">
-        <v>0.8992425701954538</v>
+        <v>0.9031158709424499</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027165547994941</v>
+        <v>1.028157568538787</v>
       </c>
       <c r="J19">
-        <v>0.900523540893938</v>
+        <v>0.9052756274633238</v>
       </c>
       <c r="K19">
-        <v>1.023476194892557</v>
+        <v>1.024486401387704</v>
       </c>
       <c r="L19">
-        <v>0.9058204317373978</v>
+        <v>0.9100293074014508</v>
       </c>
       <c r="M19">
-        <v>0.9149856063535768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9187715143931884</v>
+      </c>
+      <c r="N19">
+        <v>0.9065612226908878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8590272074020664</v>
+        <v>0.8641641813857662</v>
       </c>
       <c r="D20">
-        <v>1.007410426213954</v>
+        <v>1.008459125724054</v>
       </c>
       <c r="E20">
-        <v>0.882623398725623</v>
+        <v>0.887015669575275</v>
       </c>
       <c r="F20">
-        <v>0.8917055826357213</v>
+        <v>0.8956646956015998</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025259841424008</v>
+        <v>1.02627151552085</v>
       </c>
       <c r="J20">
-        <v>0.8933292969381009</v>
+        <v>0.8981621228284827</v>
       </c>
       <c r="K20">
-        <v>1.021324211850813</v>
+        <v>1.022354844756863</v>
       </c>
       <c r="L20">
-        <v>0.899100340432535</v>
+        <v>0.9033859205810382</v>
       </c>
       <c r="M20">
-        <v>0.907963469133264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9118289534822223</v>
+      </c>
+      <c r="N20">
+        <v>0.8994376160635349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8279404081736336</v>
+        <v>0.8335523736385361</v>
       </c>
       <c r="D21">
-        <v>0.9985433268208384</v>
+        <v>0.9996892817662943</v>
       </c>
       <c r="E21">
-        <v>0.8561042874920115</v>
+        <v>0.8608819026602464</v>
       </c>
       <c r="F21">
-        <v>0.8641858844015752</v>
+        <v>0.8685373494715063</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018316829925438</v>
+        <v>1.019418817960485</v>
       </c>
       <c r="J21">
-        <v>0.8669288733998139</v>
+        <v>0.8721380258264463</v>
       </c>
       <c r="K21">
-        <v>1.013552348973889</v>
+        <v>1.014676543192068</v>
       </c>
       <c r="L21">
-        <v>0.8744425008548345</v>
+        <v>0.8790839757629114</v>
       </c>
       <c r="M21">
-        <v>0.8822950110596225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8865255330701138</v>
+      </c>
+      <c r="N21">
+        <v>0.8733765618587497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8043801895601749</v>
+        <v>0.810491976457225</v>
       </c>
       <c r="D22">
-        <v>0.9920900652047364</v>
+        <v>0.9933369698505371</v>
       </c>
       <c r="E22">
-        <v>0.8361019039996271</v>
+        <v>0.8412847563051667</v>
       </c>
       <c r="F22">
-        <v>0.8435353434860288</v>
+        <v>0.848295133935041</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013134474281792</v>
+        <v>1.014330925303733</v>
       </c>
       <c r="J22">
-        <v>0.8469728634720844</v>
+        <v>0.8525820057592491</v>
       </c>
       <c r="K22">
-        <v>1.007819865073073</v>
+        <v>1.009041588439848</v>
       </c>
       <c r="L22">
-        <v>0.8558091250202543</v>
+        <v>0.8608269318103716</v>
       </c>
       <c r="M22">
-        <v>0.8630067227754079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8676184924186938</v>
+      </c>
+      <c r="N22">
+        <v>0.8537927699999502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8173677332009381</v>
+        <v>0.8231856044107719</v>
       </c>
       <c r="D23">
-        <v>0.9956181761779128</v>
+        <v>0.9968058541007194</v>
       </c>
       <c r="E23">
-        <v>0.847117065020874</v>
+        <v>0.8520616635088955</v>
       </c>
       <c r="F23">
-        <v>0.8548954543556212</v>
+        <v>0.8594155813852286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015981666906217</v>
+        <v>1.017122630879882</v>
       </c>
       <c r="J23">
-        <v>0.8579670823091091</v>
+        <v>0.8633406520376605</v>
       </c>
       <c r="K23">
-        <v>1.010962103368501</v>
+        <v>1.012126568803009</v>
       </c>
       <c r="L23">
-        <v>0.8660739025405787</v>
+        <v>0.8708702579237109</v>
       </c>
       <c r="M23">
-        <v>0.8736201506007893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8780080227647334</v>
+      </c>
+      <c r="N23">
+        <v>0.8645666947901111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8594995994813209</v>
+        <v>0.8646305713883999</v>
       </c>
       <c r="D24">
-        <v>1.007548144829397</v>
+        <v>1.008595603892098</v>
       </c>
       <c r="E24">
-        <v>0.8830273704307234</v>
+        <v>0.887414771963098</v>
       </c>
       <c r="F24">
-        <v>0.8921259549851251</v>
+        <v>0.8960800728043498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025366103993331</v>
+        <v>1.026376632777172</v>
       </c>
       <c r="J24">
-        <v>0.8937309517685649</v>
+        <v>0.8985590589208966</v>
       </c>
       <c r="K24">
-        <v>1.021443990655498</v>
+        <v>1.022473434035355</v>
       </c>
       <c r="L24">
-        <v>0.8994755191984199</v>
+        <v>0.9037566206012781</v>
       </c>
       <c r="M24">
-        <v>0.908355219535983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9122160685188332</v>
+      </c>
+      <c r="N24">
+        <v>0.899835115850729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8977222570648733</v>
+        <v>0.9024560412097981</v>
       </c>
       <c r="D25">
-        <v>1.018969970747592</v>
+        <v>1.019934421092805</v>
       </c>
       <c r="E25">
-        <v>0.9157978324621907</v>
+        <v>0.9198632321666929</v>
       </c>
       <c r="F25">
-        <v>0.9263334897483558</v>
+        <v>0.929954002939048</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034015183669442</v>
+        <v>1.034949682316864</v>
       </c>
       <c r="J25">
-        <v>0.9262604565514233</v>
+        <v>0.9307797147236927</v>
       </c>
       <c r="K25">
-        <v>1.031280770453976</v>
+        <v>1.032230966200688</v>
       </c>
       <c r="L25">
-        <v>0.9298609101562434</v>
+        <v>0.9338475186686168</v>
       </c>
       <c r="M25">
-        <v>0.940194240746535</v>
+        <v>0.9437466073096248</v>
+      </c>
+      <c r="N25">
+        <v>0.932101528680526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9278369870246658</v>
+        <v>0.8861182806191032</v>
       </c>
       <c r="D2">
-        <v>1.027822992628431</v>
+        <v>1.025292359415916</v>
       </c>
       <c r="E2">
-        <v>0.9417118090010427</v>
+        <v>0.9078775186953625</v>
       </c>
       <c r="F2">
-        <v>0.9528689131124847</v>
+        <v>0.8799812944423052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040726615224262</v>
+        <v>1.038266947426471</v>
       </c>
       <c r="J2">
-        <v>0.9524133112841453</v>
+        <v>0.9123348108528641</v>
       </c>
       <c r="K2">
-        <v>1.038907853759516</v>
+        <v>1.036410227736359</v>
       </c>
       <c r="L2">
-        <v>0.9540476971645568</v>
+        <v>0.9207892224346892</v>
       </c>
       <c r="M2">
-        <v>0.9650263987137134</v>
+        <v>0.8934114059300672</v>
       </c>
       <c r="N2">
-        <v>0.9537658474295023</v>
+        <v>0.9136304309305386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9443651767159504</v>
+        <v>0.9063361682373945</v>
       </c>
       <c r="D3">
-        <v>1.033069400850342</v>
+        <v>1.031099808994378</v>
       </c>
       <c r="E3">
-        <v>0.9559653317069032</v>
+        <v>0.9249178619030739</v>
       </c>
       <c r="F3">
-        <v>0.9678609445624727</v>
+        <v>0.9056353757754798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044480877888135</v>
+        <v>1.04256237177961</v>
       </c>
       <c r="J3">
-        <v>0.966496638188967</v>
+        <v>0.9297523938304227</v>
       </c>
       <c r="K3">
-        <v>1.043295939507012</v>
+        <v>1.041349644358677</v>
       </c>
       <c r="L3">
-        <v>0.9671944739120462</v>
+        <v>0.9366109994005428</v>
       </c>
       <c r="M3">
-        <v>0.9789222654299472</v>
+        <v>0.9176372764818055</v>
       </c>
       <c r="N3">
-        <v>0.9678691742739092</v>
+        <v>0.9310727488737522</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9543635234406849</v>
+        <v>0.9181269343161353</v>
       </c>
       <c r="D4">
-        <v>1.036281549706526</v>
+        <v>1.03452971508708</v>
       </c>
       <c r="E4">
-        <v>0.9645957198908134</v>
+        <v>0.9348731233610832</v>
       </c>
       <c r="F4">
-        <v>0.9769542621019938</v>
+        <v>0.9203872948024554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046743401961411</v>
+        <v>1.04503471993503</v>
       </c>
       <c r="J4">
-        <v>0.9750113194623217</v>
+        <v>0.9398851608072258</v>
       </c>
       <c r="K4">
-        <v>1.045960953485872</v>
+        <v>1.044228520177332</v>
       </c>
       <c r="L4">
-        <v>0.9751410978131756</v>
+        <v>0.9458267779108263</v>
       </c>
       <c r="M4">
-        <v>0.9873390237704672</v>
+        <v>0.9315520752946982</v>
       </c>
       <c r="N4">
-        <v>0.9763959473713197</v>
+        <v>0.9412199055419069</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9584208472028861</v>
+        <v>0.9228323700179721</v>
       </c>
       <c r="D5">
-        <v>1.037592823380383</v>
+        <v>1.035906062486031</v>
       </c>
       <c r="E5">
-        <v>0.9680994280360559</v>
+        <v>0.9388495804974595</v>
       </c>
       <c r="F5">
-        <v>0.9806492268067648</v>
+        <v>0.9262304225794603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047658882571112</v>
+        <v>1.046012767285152</v>
       </c>
       <c r="J5">
-        <v>0.9784651462709608</v>
+        <v>0.9439233243725014</v>
       </c>
       <c r="K5">
-        <v>1.047043985820748</v>
+        <v>1.045375383184852</v>
       </c>
       <c r="L5">
-        <v>0.9783640381148606</v>
+        <v>0.949501887880623</v>
       </c>
       <c r="M5">
-        <v>0.9907563247940625</v>
+        <v>0.9370595542148592</v>
       </c>
       <c r="N5">
-        <v>0.9798546790101866</v>
+        <v>0.9452638037626289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9590940520818643</v>
+        <v>0.9236090151904656</v>
       </c>
       <c r="D6">
-        <v>1.037810815173377</v>
+        <v>1.036133608040884</v>
       </c>
       <c r="E6">
-        <v>0.9686808526581978</v>
+        <v>0.9395060972062484</v>
       </c>
       <c r="F6">
-        <v>0.9812625732014844</v>
+        <v>0.9271923911237969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047810610269964</v>
+        <v>1.046173668760403</v>
       </c>
       <c r="J6">
-        <v>0.9790381253023505</v>
+        <v>0.9445895125976923</v>
       </c>
       <c r="K6">
-        <v>1.047223753635643</v>
+        <v>1.045564515357692</v>
       </c>
       <c r="L6">
-        <v>0.9788986858349845</v>
+        <v>0.9501083149219994</v>
       </c>
       <c r="M6">
-        <v>0.9913234196027126</v>
+        <v>0.937966017687838</v>
       </c>
       <c r="N6">
-        <v>0.9804284717375222</v>
+        <v>0.9459309380515126</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9544182870230414</v>
+        <v>0.9181907344438087</v>
       </c>
       <c r="D7">
-        <v>1.036299219299198</v>
+        <v>1.034548349729364</v>
       </c>
       <c r="E7">
-        <v>0.9646430055914622</v>
+        <v>0.9349270260388063</v>
       </c>
       <c r="F7">
-        <v>0.9770041163089641</v>
+        <v>0.9204666905186023</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046755769924483</v>
+        <v>1.045048016554379</v>
       </c>
       <c r="J7">
-        <v>0.9750579434033119</v>
+        <v>0.9399399355653764</v>
       </c>
       <c r="K7">
-        <v>1.045975566579134</v>
+        <v>1.044244080340607</v>
       </c>
       <c r="L7">
-        <v>0.9751846068478832</v>
+        <v>0.9458766189075434</v>
       </c>
       <c r="M7">
-        <v>0.9873851425075855</v>
+        <v>0.9316269269118901</v>
       </c>
       <c r="N7">
-        <v>0.976442637523654</v>
+        <v>0.9412747580864965</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9335810259730931</v>
+        <v>0.8932606595818513</v>
       </c>
       <c r="D8">
-        <v>1.029636956221496</v>
+        <v>1.027332324603816</v>
       </c>
       <c r="E8">
-        <v>0.9466632866920627</v>
+        <v>0.9138929413084426</v>
       </c>
       <c r="F8">
-        <v>0.9580732023832841</v>
+        <v>0.8890953671261432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042032762855313</v>
+        <v>1.039791089349852</v>
       </c>
       <c r="J8">
-        <v>0.9573084944553529</v>
+        <v>0.9184937487658502</v>
       </c>
       <c r="K8">
-        <v>1.040429900249553</v>
+        <v>1.038154364912243</v>
       </c>
       <c r="L8">
-        <v>0.958617723226571</v>
+        <v>0.9263810831724413</v>
       </c>
       <c r="M8">
-        <v>0.9698527314819764</v>
+        <v>0.9020214145639813</v>
       </c>
       <c r="N8">
-        <v>0.9586679823222984</v>
+        <v>0.9197981152418033</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8902528531581826</v>
+        <v>0.8347266534994616</v>
       </c>
       <c r="D9">
-        <v>1.016219434382657</v>
+        <v>1.011058297698028</v>
       </c>
       <c r="E9">
-        <v>0.9093785236602625</v>
+        <v>0.8647436506068298</v>
       </c>
       <c r="F9">
-        <v>0.9189872280940196</v>
+        <v>0.8127215990173409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032175658384213</v>
+        <v>1.027182785137271</v>
       </c>
       <c r="J9">
-        <v>0.9203800406327398</v>
+        <v>0.8678520497506901</v>
       </c>
       <c r="K9">
-        <v>1.029054731559233</v>
+        <v>1.023974473826126</v>
       </c>
       <c r="L9">
-        <v>0.9241355367804359</v>
+        <v>0.8804924421835485</v>
       </c>
       <c r="M9">
-        <v>0.933547324895423</v>
+        <v>0.8298147424685338</v>
       </c>
       <c r="N9">
-        <v>0.9216870858595048</v>
+        <v>0.8690844992053575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8541767153049522</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D10">
-        <v>1.005556831747196</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E10">
-        <v>0.8784755834993103</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F10">
-        <v>0.8867840955250587</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024025156603807</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J10">
-        <v>0.889664818507242</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K10">
-        <v>1.019826475500316</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L10">
-        <v>0.8954504139280759</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M10">
-        <v>0.9035500933666396</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N10">
-        <v>0.8909282445955032</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.835682623083242</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D11">
-        <v>1.000287319398585</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E11">
-        <v>0.8626963520619051</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F11">
-        <v>0.8704160230641764</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019892342034545</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J11">
-        <v>0.8739468895357325</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K11">
-        <v>1.015203819329949</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L11">
-        <v>0.8807729497316249</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M11">
-        <v>0.8882792141360969</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N11">
-        <v>0.8751879943619826</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8281929943659914</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D12">
-        <v>0.9981930179686098</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E12">
-        <v>0.8563200031055183</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F12">
-        <v>0.8638172640366089</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01823000675258</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J12">
-        <v>0.8675888404554228</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K12">
-        <v>1.013354918976805</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L12">
-        <v>0.8748364773602579</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M12">
-        <v>0.8821186629675392</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N12">
-        <v>0.8688209161227004</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8298321648149514</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D13">
-        <v>0.9986493846760075</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E13">
-        <v>0.8577148063020997</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F13">
-        <v>0.8652599295329876</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018593218718977</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J13">
-        <v>0.8689799581601295</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K13">
-        <v>1.013758385112009</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L13">
-        <v>0.8761353135093474</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M13">
-        <v>0.8834657200804482</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N13">
-        <v>0.8702140093741111</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8350777565867128</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D14">
-        <v>1.00011732154403</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E14">
-        <v>0.8621810869068008</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F14">
-        <v>0.8698824446516413</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019757832525609</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J14">
-        <v>0.8734332412000095</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K14">
-        <v>1.01505399164854</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L14">
-        <v>0.8802933417820465</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M14">
-        <v>0.8877811550726026</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N14">
-        <v>0.8746736165867067</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8382196900660996</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D15">
-        <v>1.001001999647333</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E15">
-        <v>0.8648581700340807</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F15">
-        <v>0.8726553190820711</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020457011381079</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J15">
-        <v>0.8761016594174974</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K15">
-        <v>1.015833221760526</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L15">
-        <v>0.8827849501934865</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M15">
-        <v>0.8903692776622938</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N15">
-        <v>0.8773458242641353</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8553301611169896</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D16">
-        <v>1.005890019332884</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E16">
-        <v>0.8794612292663981</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F16">
-        <v>0.8878082781226682</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024284110669407</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J16">
-        <v>0.89064587352028</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K16">
-        <v>1.020117368133023</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L16">
-        <v>0.8963665884162237</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M16">
-        <v>0.9045051175340977</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N16">
-        <v>0.8919106928191883</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8651945888796926</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D17">
-        <v>1.008760762487153</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E17">
-        <v>0.8878974518584627</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F17">
-        <v>0.8965824782617001</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0265037783074</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J17">
-        <v>0.8990390988261877</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K17">
-        <v>1.02261690788626</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L17">
-        <v>0.9042049322288047</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M17">
-        <v>0.9126842762180385</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N17">
-        <v>0.9003158374677469</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8706877140833593</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D18">
-        <v>1.010375666719565</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E18">
-        <v>0.8926003849650103</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F18">
-        <v>0.9014800261216007</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027743437256031</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J18">
-        <v>0.9037151563503315</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K18">
-        <v>1.024017674216077</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L18">
-        <v>0.9085719563171001</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M18">
-        <v>0.9172476324454657</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N18">
-        <v>0.904998535529926</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8725204874569239</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D19">
-        <v>1.010917033761679</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E19">
-        <v>0.8941702956644462</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F19">
-        <v>0.9031158709424499</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028157568538787</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J19">
-        <v>0.9052756274633238</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K19">
-        <v>1.024486401387704</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L19">
-        <v>0.9100293074014508</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M19">
-        <v>0.9187715143931884</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N19">
-        <v>0.9065612226908878</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8641641813857662</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D20">
-        <v>1.008459125724054</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E20">
-        <v>0.887015669575275</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F20">
-        <v>0.8956646956015998</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02627151552085</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J20">
-        <v>0.8981621228284827</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K20">
-        <v>1.022354844756863</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L20">
-        <v>0.9033859205810382</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M20">
-        <v>0.9118289534822223</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N20">
-        <v>0.8994376160635349</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8335523736385361</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D21">
-        <v>0.9996892817662943</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E21">
-        <v>0.8608819026602464</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F21">
-        <v>0.8685373494715063</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019418817960485</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J21">
-        <v>0.8721380258264463</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K21">
-        <v>1.014676543192068</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L21">
-        <v>0.8790839757629114</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M21">
-        <v>0.8865255330701138</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N21">
-        <v>0.8733765618587497</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.810491976457225</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D22">
-        <v>0.9933369698505371</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E22">
-        <v>0.8412847563051667</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F22">
-        <v>0.848295133935041</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014330925303733</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J22">
-        <v>0.8525820057592491</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K22">
-        <v>1.009041588439848</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L22">
-        <v>0.8608269318103716</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M22">
-        <v>0.8676184924186938</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N22">
-        <v>0.8537927699999502</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8231856044107719</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D23">
-        <v>0.9968058541007194</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E23">
-        <v>0.8520616635088955</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F23">
-        <v>0.8594155813852286</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017122630879882</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J23">
-        <v>0.8633406520376605</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K23">
-        <v>1.012126568803009</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L23">
-        <v>0.8708702579237109</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M23">
-        <v>0.8780080227647334</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N23">
-        <v>0.8645666947901111</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8646305713883999</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D24">
-        <v>1.008595603892098</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E24">
-        <v>0.887414771963098</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F24">
-        <v>0.8960800728043498</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026376632777172</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J24">
-        <v>0.8985590589208966</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K24">
-        <v>1.022473434035355</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L24">
-        <v>0.9037566206012781</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M24">
-        <v>0.9122160685188332</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N24">
-        <v>0.899835115850729</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9024560412097981</v>
+        <v>0.7642452772946207</v>
       </c>
       <c r="D25">
-        <v>1.019934421092805</v>
+        <v>0.9930220359249431</v>
       </c>
       <c r="E25">
-        <v>0.9198632321666929</v>
+        <v>0.8060374622912316</v>
       </c>
       <c r="F25">
-        <v>0.929954002939048</v>
+        <v>0.714781617924819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034949682316864</v>
+        <v>1.011951694785864</v>
       </c>
       <c r="J25">
-        <v>0.9307797147236927</v>
+        <v>0.8063829715612386</v>
       </c>
       <c r="K25">
-        <v>1.032230966200688</v>
+        <v>1.00751843308462</v>
       </c>
       <c r="L25">
-        <v>0.9338475186686168</v>
+        <v>0.8250870919038612</v>
       </c>
       <c r="M25">
-        <v>0.9437466073096248</v>
+        <v>0.7373158719143231</v>
       </c>
       <c r="N25">
-        <v>0.932101528680526</v>
+        <v>0.8075281278742753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8861182806191032</v>
+        <v>1.014334099004617</v>
       </c>
       <c r="D2">
-        <v>1.025292359415916</v>
+        <v>1.055335777570807</v>
       </c>
       <c r="E2">
-        <v>0.9078775186953625</v>
+        <v>1.032182184562639</v>
       </c>
       <c r="F2">
-        <v>0.8799812944423052</v>
+        <v>1.051036660684008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038266947426471</v>
+        <v>1.062351717962077</v>
       </c>
       <c r="J2">
-        <v>0.9123348108528641</v>
+        <v>1.036094371938308</v>
       </c>
       <c r="K2">
-        <v>1.036410227736359</v>
+        <v>1.066074491701478</v>
       </c>
       <c r="L2">
-        <v>0.9207892224346892</v>
+        <v>1.043210663176074</v>
       </c>
       <c r="M2">
-        <v>0.8934114059300672</v>
+        <v>1.061827976742531</v>
       </c>
       <c r="N2">
-        <v>0.9136304309305386</v>
+        <v>1.01586462089606</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9063361682373945</v>
+        <v>1.018055450932292</v>
       </c>
       <c r="D3">
-        <v>1.031099808994378</v>
+        <v>1.058284834188728</v>
       </c>
       <c r="E3">
-        <v>0.9249178619030739</v>
+        <v>1.03520901148998</v>
       </c>
       <c r="F3">
-        <v>0.9056353757754798</v>
+        <v>1.054309446843494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04256237177961</v>
+        <v>1.063628453502457</v>
       </c>
       <c r="J3">
-        <v>0.9297523938304227</v>
+        <v>1.038065721850747</v>
       </c>
       <c r="K3">
-        <v>1.041349644358677</v>
+        <v>1.068222551043807</v>
       </c>
       <c r="L3">
-        <v>0.9366109994005428</v>
+        <v>1.045410366764337</v>
       </c>
       <c r="M3">
-        <v>0.9176372764818055</v>
+        <v>1.064291568591615</v>
       </c>
       <c r="N3">
-        <v>0.9310727488737522</v>
+        <v>1.016525036304656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9181269343161353</v>
+        <v>1.020421270564914</v>
       </c>
       <c r="D4">
-        <v>1.03452971508708</v>
+        <v>1.060160391911132</v>
       </c>
       <c r="E4">
-        <v>0.9348731233610832</v>
+        <v>1.03713841296284</v>
       </c>
       <c r="F4">
-        <v>0.9203872948024554</v>
+        <v>1.056393961376873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04503471993503</v>
+        <v>1.064430357371893</v>
       </c>
       <c r="J4">
-        <v>0.9398851608072258</v>
+        <v>1.03931664060543</v>
       </c>
       <c r="K4">
-        <v>1.044228520177332</v>
+        <v>1.069583157529061</v>
       </c>
       <c r="L4">
-        <v>0.9458267779108263</v>
+        <v>1.046808356444016</v>
       </c>
       <c r="M4">
-        <v>0.9315520752946982</v>
+        <v>1.065856264100759</v>
       </c>
       <c r="N4">
-        <v>0.9412199055419069</v>
+        <v>1.016944034987878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9228323700179721</v>
+        <v>1.021406067633931</v>
       </c>
       <c r="D5">
-        <v>1.035906062486031</v>
+        <v>1.060941238292002</v>
       </c>
       <c r="E5">
-        <v>0.9388495804974595</v>
+        <v>1.037942742507326</v>
       </c>
       <c r="F5">
-        <v>0.9262304225794603</v>
+        <v>1.057262552557457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046012767285152</v>
+        <v>1.06476177763165</v>
       </c>
       <c r="J5">
-        <v>0.9439233243725014</v>
+        <v>1.039836760905311</v>
       </c>
       <c r="K5">
-        <v>1.045375383184852</v>
+        <v>1.070148281006554</v>
       </c>
       <c r="L5">
-        <v>0.949501887880623</v>
+        <v>1.047390147067883</v>
       </c>
       <c r="M5">
-        <v>0.9370595542148592</v>
+        <v>1.066507185198702</v>
       </c>
       <c r="N5">
-        <v>0.9452638037626289</v>
+        <v>1.017118232635826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9236090151904656</v>
+        <v>1.021570853478813</v>
       </c>
       <c r="D6">
-        <v>1.036133608040884</v>
+        <v>1.061071903191871</v>
       </c>
       <c r="E6">
-        <v>0.9395060972062484</v>
+        <v>1.03807740013966</v>
       </c>
       <c r="F6">
-        <v>0.9271923911237969</v>
+        <v>1.057407944956574</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046173668760403</v>
+        <v>1.064817093135699</v>
       </c>
       <c r="J6">
-        <v>0.9445895125976923</v>
+        <v>1.039923757287202</v>
       </c>
       <c r="K6">
-        <v>1.045564515357692</v>
+        <v>1.070242768695599</v>
       </c>
       <c r="L6">
-        <v>0.9501083149219994</v>
+        <v>1.047487489078331</v>
       </c>
       <c r="M6">
-        <v>0.937966017687838</v>
+        <v>1.066616079119116</v>
       </c>
       <c r="N6">
-        <v>0.9459309380515126</v>
+        <v>1.017147368171785</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9181907344438087</v>
+        <v>1.020434467569367</v>
       </c>
       <c r="D7">
-        <v>1.034548349729364</v>
+        <v>1.060170855389734</v>
       </c>
       <c r="E7">
-        <v>0.9349270260388063</v>
+        <v>1.037149186890082</v>
       </c>
       <c r="F7">
-        <v>0.9204666905186023</v>
+        <v>1.056405597670999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045048016554379</v>
+        <v>1.064434808092489</v>
       </c>
       <c r="J7">
-        <v>0.9399399355653764</v>
+        <v>1.039323612950398</v>
       </c>
       <c r="K7">
-        <v>1.044244080340607</v>
+        <v>1.069590735561808</v>
       </c>
       <c r="L7">
-        <v>0.9458766189075434</v>
+        <v>1.046816153444021</v>
       </c>
       <c r="M7">
-        <v>0.9316269269118901</v>
+        <v>1.065864988547497</v>
       </c>
       <c r="N7">
-        <v>0.9412747580864965</v>
+        <v>1.016946370225579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8932606595818513</v>
+        <v>1.015600655476492</v>
       </c>
       <c r="D8">
-        <v>1.027332324603816</v>
+        <v>1.056339305392753</v>
       </c>
       <c r="E8">
-        <v>0.9138929413084426</v>
+        <v>1.033211268751144</v>
       </c>
       <c r="F8">
-        <v>0.8890953671261432</v>
+        <v>1.052149715959367</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039791089349852</v>
+        <v>1.062788275407345</v>
       </c>
       <c r="J8">
-        <v>0.9184937487658502</v>
+        <v>1.036765795428896</v>
       </c>
       <c r="K8">
-        <v>1.038154364912243</v>
+        <v>1.066806601826616</v>
       </c>
       <c r="L8">
-        <v>0.9263810831724413</v>
+        <v>1.043959406635785</v>
       </c>
       <c r="M8">
-        <v>0.9020214145639813</v>
+        <v>1.062666750570263</v>
       </c>
       <c r="N8">
-        <v>0.9197981152418033</v>
+        <v>1.016089565240289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8347266534994616</v>
+        <v>1.006746184085949</v>
       </c>
       <c r="D9">
-        <v>1.011058297698028</v>
+        <v>1.049328653740089</v>
       </c>
       <c r="E9">
-        <v>0.8647436506068298</v>
+        <v>1.026039953813369</v>
       </c>
       <c r="F9">
-        <v>0.8127215990173409</v>
+        <v>1.044386281552486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027182785137271</v>
+        <v>1.059696577823911</v>
       </c>
       <c r="J9">
-        <v>0.8678520497506901</v>
+        <v>1.032062945860103</v>
       </c>
       <c r="K9">
-        <v>1.023974473826126</v>
+        <v>1.061669076294734</v>
       </c>
       <c r="L9">
-        <v>0.8804924421835485</v>
+        <v>1.038724220345288</v>
       </c>
       <c r="M9">
-        <v>0.8298147424685338</v>
+        <v>1.056798049828861</v>
       </c>
       <c r="N9">
-        <v>0.8690844992053575</v>
+        <v>1.014513779687575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7642452772946207</v>
+        <v>1.000596431175407</v>
       </c>
       <c r="D10">
-        <v>0.9930220359249431</v>
+        <v>1.044468059505721</v>
       </c>
       <c r="E10">
-        <v>0.8060374622912316</v>
+        <v>1.021089965299489</v>
       </c>
       <c r="F10">
-        <v>0.714781617924819</v>
+        <v>1.039018842409737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011951694785864</v>
+        <v>1.057500553168254</v>
       </c>
       <c r="J10">
-        <v>0.8063829715612386</v>
+        <v>1.028786405347387</v>
       </c>
       <c r="K10">
-        <v>1.00751843308462</v>
+        <v>1.058078307914693</v>
       </c>
       <c r="L10">
-        <v>0.8250870919038612</v>
+        <v>1.035088595890433</v>
       </c>
       <c r="M10">
-        <v>0.7373158719143231</v>
+        <v>1.052717611113223</v>
       </c>
       <c r="N10">
-        <v>0.8075281278742753</v>
+        <v>1.013415726763728</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7642452772946207</v>
+        <v>0.9978701411421983</v>
       </c>
       <c r="D11">
-        <v>0.9930220359249431</v>
+        <v>1.042316052123636</v>
       </c>
       <c r="E11">
-        <v>0.8060374622912316</v>
+        <v>1.018903383658526</v>
       </c>
       <c r="F11">
-        <v>0.714781617924819</v>
+        <v>1.036645806746865</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011951694785864</v>
+        <v>1.056516004197357</v>
       </c>
       <c r="J11">
-        <v>0.8063829715612386</v>
+        <v>1.027331793948176</v>
       </c>
       <c r="K11">
-        <v>1.00751843308462</v>
+        <v>1.056481761967074</v>
       </c>
       <c r="L11">
-        <v>0.8250870919038612</v>
+        <v>1.033477402773025</v>
       </c>
       <c r="M11">
-        <v>0.7373158719143231</v>
+        <v>1.050908216037741</v>
       </c>
       <c r="N11">
-        <v>0.8075281278742753</v>
+        <v>1.012928232990641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7642452772946207</v>
+        <v>0.9968475104247637</v>
       </c>
       <c r="D12">
-        <v>0.9930220359249431</v>
+        <v>1.041509317825612</v>
       </c>
       <c r="E12">
-        <v>0.8060374622912316</v>
+        <v>1.018084421968112</v>
       </c>
       <c r="F12">
-        <v>0.714781617924819</v>
+        <v>1.035756704347557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011951694785864</v>
+        <v>1.056145092840152</v>
       </c>
       <c r="J12">
-        <v>0.8063829715612386</v>
+        <v>1.026785891122393</v>
       </c>
       <c r="K12">
-        <v>1.00751843308462</v>
+        <v>1.055882249849498</v>
       </c>
       <c r="L12">
-        <v>0.8250870919038612</v>
+        <v>1.032873165104865</v>
       </c>
       <c r="M12">
-        <v>0.7373158719143231</v>
+        <v>1.050229493226189</v>
       </c>
       <c r="N12">
-        <v>0.8075281278742753</v>
+        <v>1.012745280736355</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7642452772946207</v>
+        <v>0.9970673264560707</v>
       </c>
       <c r="D13">
-        <v>0.9930220359249431</v>
+        <v>1.041682703671235</v>
       </c>
       <c r="E13">
-        <v>0.8060374622912316</v>
+        <v>1.018260402902112</v>
       </c>
       <c r="F13">
-        <v>0.714781617924819</v>
+        <v>1.035947771137705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011951694785864</v>
+        <v>1.056224892662407</v>
       </c>
       <c r="J13">
-        <v>0.8063829715612386</v>
+        <v>1.026903245828515</v>
       </c>
       <c r="K13">
-        <v>1.00751843308462</v>
+        <v>1.056011144237737</v>
       </c>
       <c r="L13">
-        <v>0.8250870919038612</v>
+        <v>1.033003040823819</v>
       </c>
       <c r="M13">
-        <v>0.7373158719143231</v>
+        <v>1.050375385755725</v>
       </c>
       <c r="N13">
-        <v>0.8075281278742753</v>
+        <v>1.01278461061422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7642452772946207</v>
+        <v>0.9977858160814005</v>
       </c>
       <c r="D14">
-        <v>0.9930220359249431</v>
+        <v>1.042249519440678</v>
       </c>
       <c r="E14">
-        <v>0.8060374622912316</v>
+        <v>1.018835827745864</v>
       </c>
       <c r="F14">
-        <v>0.714781617924819</v>
+        <v>1.036572471167419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011951694785864</v>
+        <v>1.056485451644239</v>
       </c>
       <c r="J14">
-        <v>0.8063829715612386</v>
+        <v>1.027286784847224</v>
       </c>
       <c r="K14">
-        <v>1.00751843308462</v>
+        <v>1.056432339666511</v>
       </c>
       <c r="L14">
-        <v>0.8250870919038612</v>
+        <v>1.033427575285033</v>
       </c>
       <c r="M14">
-        <v>0.7373158719143231</v>
+        <v>1.050852249352624</v>
       </c>
       <c r="N14">
-        <v>0.8075281278742753</v>
+        <v>1.012913148763703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7642452772946207</v>
+        <v>0.9982271672154466</v>
       </c>
       <c r="D15">
-        <v>0.9930220359249431</v>
+        <v>1.042597766691904</v>
       </c>
       <c r="E15">
-        <v>0.8060374622912316</v>
+        <v>1.019189460639647</v>
       </c>
       <c r="F15">
-        <v>0.714781617924819</v>
+        <v>1.036956346219281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011951694785864</v>
+        <v>1.056645296169777</v>
       </c>
       <c r="J15">
-        <v>0.8063829715612386</v>
+        <v>1.027522347987532</v>
       </c>
       <c r="K15">
-        <v>1.00751843308462</v>
+        <v>1.056690986242982</v>
       </c>
       <c r="L15">
-        <v>0.8250870919038612</v>
+        <v>1.033688373824474</v>
       </c>
       <c r="M15">
-        <v>0.7373158719143231</v>
+        <v>1.051145174371454</v>
       </c>
       <c r="N15">
-        <v>0.8075281278742753</v>
+        <v>1.012992094757797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7642452772946207</v>
+        <v>1.000775993241507</v>
       </c>
       <c r="D16">
-        <v>0.9930220359249431</v>
+        <v>1.044609860982385</v>
       </c>
       <c r="E16">
-        <v>0.8060374622912316</v>
+        <v>1.021234147947863</v>
       </c>
       <c r="F16">
-        <v>0.714781617924819</v>
+        <v>1.039175277069884</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011951694785864</v>
+        <v>1.057565172764527</v>
       </c>
       <c r="J16">
-        <v>0.8063829715612386</v>
+        <v>1.028882170207338</v>
       </c>
       <c r="K16">
-        <v>1.00751843308462</v>
+        <v>1.058183368252639</v>
       </c>
       <c r="L16">
-        <v>0.8250870919038612</v>
+        <v>1.035194728729912</v>
       </c>
       <c r="M16">
-        <v>0.7373158719143231</v>
+        <v>1.052836778105649</v>
       </c>
       <c r="N16">
-        <v>0.8075281278742753</v>
+        <v>1.01344782094618</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7642452772946207</v>
+        <v>1.002357526404714</v>
       </c>
       <c r="D17">
-        <v>0.9930220359249431</v>
+        <v>1.045859133931409</v>
       </c>
       <c r="E17">
-        <v>0.8060374622912316</v>
+        <v>1.022504968294282</v>
       </c>
       <c r="F17">
-        <v>0.714781617924819</v>
+        <v>1.04055385187399</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011951694785864</v>
+        <v>1.058133073333478</v>
       </c>
       <c r="J17">
-        <v>0.8063829715612386</v>
+        <v>1.029725408838633</v>
       </c>
       <c r="K17">
-        <v>1.00751843308462</v>
+        <v>1.059108181638231</v>
       </c>
       <c r="L17">
-        <v>0.8250870919038612</v>
+        <v>1.036129583907687</v>
       </c>
       <c r="M17">
-        <v>0.7373158719143231</v>
+        <v>1.05388632087017</v>
       </c>
       <c r="N17">
-        <v>0.8075281278742753</v>
+        <v>1.013730418397246</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7642452772946207</v>
+        <v>1.003273921061818</v>
       </c>
       <c r="D18">
-        <v>0.9930220359249431</v>
+        <v>1.046583265297128</v>
       </c>
       <c r="E18">
-        <v>0.8060374622912316</v>
+        <v>1.023242067200113</v>
       </c>
       <c r="F18">
-        <v>0.714781617924819</v>
+        <v>1.041353254578958</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011951694785864</v>
+        <v>1.058461083358077</v>
       </c>
       <c r="J18">
-        <v>0.8063829715612386</v>
+        <v>1.030213811629974</v>
       </c>
       <c r="K18">
-        <v>1.00751843308462</v>
+        <v>1.059643599486488</v>
       </c>
       <c r="L18">
-        <v>0.8250870919038612</v>
+        <v>1.036671319936222</v>
       </c>
       <c r="M18">
-        <v>0.7373158719143231</v>
+        <v>1.054494414097301</v>
       </c>
       <c r="N18">
-        <v>0.8075281278742753</v>
+        <v>1.013894096815199</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7642452772946207</v>
+        <v>1.003585368450789</v>
       </c>
       <c r="D19">
-        <v>0.9930220359249431</v>
+        <v>1.046829411888139</v>
       </c>
       <c r="E19">
-        <v>0.8060374622912316</v>
+        <v>1.023492703293865</v>
       </c>
       <c r="F19">
-        <v>0.714781617924819</v>
+        <v>1.041625042603668</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011951694785864</v>
+        <v>1.058572381698034</v>
       </c>
       <c r="J19">
-        <v>0.8063829715612386</v>
+        <v>1.030379766372013</v>
       </c>
       <c r="K19">
-        <v>1.00751843308462</v>
+        <v>1.059825489315778</v>
       </c>
       <c r="L19">
-        <v>0.8250870919038612</v>
+        <v>1.036855442361352</v>
       </c>
       <c r="M19">
-        <v>0.7373158719143231</v>
+        <v>1.05470107203447</v>
       </c>
       <c r="N19">
-        <v>0.8075281278742753</v>
+        <v>1.013949712871459</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7642452772946207</v>
+        <v>1.002188475553921</v>
       </c>
       <c r="D20">
-        <v>0.9930220359249431</v>
+        <v>1.045725571144318</v>
       </c>
       <c r="E20">
-        <v>0.8060374622912316</v>
+        <v>1.022369052415432</v>
       </c>
       <c r="F20">
-        <v>0.714781617924819</v>
+        <v>1.040406431793799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011951694785864</v>
+        <v>1.058072478827052</v>
       </c>
       <c r="J20">
-        <v>0.8063829715612386</v>
+        <v>1.029635295025844</v>
       </c>
       <c r="K20">
-        <v>1.00751843308462</v>
+        <v>1.059009374228173</v>
       </c>
       <c r="L20">
-        <v>0.8250870919038612</v>
+        <v>1.036029651444627</v>
       </c>
       <c r="M20">
-        <v>0.7373158719143231</v>
+        <v>1.053774139342916</v>
       </c>
       <c r="N20">
-        <v>0.8075281278742753</v>
+        <v>1.013700218404792</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7642452772946207</v>
+        <v>0.9975745175343169</v>
       </c>
       <c r="D21">
-        <v>0.9930220359249431</v>
+        <v>1.042082812376298</v>
       </c>
       <c r="E21">
-        <v>0.8060374622912316</v>
+        <v>1.018666568596961</v>
       </c>
       <c r="F21">
-        <v>0.714781617924819</v>
+        <v>1.036388726319995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011951694785864</v>
+        <v>1.05640886847321</v>
       </c>
       <c r="J21">
-        <v>0.8063829715612386</v>
+        <v>1.027173998367499</v>
       </c>
       <c r="K21">
-        <v>1.00751843308462</v>
+        <v>1.056308488889688</v>
       </c>
       <c r="L21">
-        <v>0.8250870919038612</v>
+        <v>1.033302721528144</v>
       </c>
       <c r="M21">
-        <v>0.7373158719143231</v>
+        <v>1.050712010018541</v>
       </c>
       <c r="N21">
-        <v>0.8075281278742753</v>
+        <v>1.012875349816989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7642452772946207</v>
+        <v>0.9946156476300294</v>
       </c>
       <c r="D22">
-        <v>0.9930220359249431</v>
+        <v>1.039749605399901</v>
       </c>
       <c r="E22">
-        <v>0.8060374622912316</v>
+        <v>1.016299365111655</v>
       </c>
       <c r="F22">
-        <v>0.714781617924819</v>
+        <v>1.033818204721237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011951694785864</v>
+        <v>1.055332689996378</v>
       </c>
       <c r="J22">
-        <v>0.8063829715612386</v>
+        <v>1.025593997979587</v>
       </c>
       <c r="K22">
-        <v>1.00751843308462</v>
+        <v>1.054572706002308</v>
       </c>
       <c r="L22">
-        <v>0.8250870919038612</v>
+        <v>1.031554699092314</v>
       </c>
       <c r="M22">
-        <v>0.7373158719143231</v>
+        <v>1.048748222411564</v>
       </c>
       <c r="N22">
-        <v>0.8075281278742753</v>
+        <v>1.012345835464467</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7642452772946207</v>
+        <v>0.9961898411490325</v>
       </c>
       <c r="D23">
-        <v>0.9930220359249431</v>
+        <v>1.040990639380567</v>
       </c>
       <c r="E23">
-        <v>0.8060374622912316</v>
+        <v>1.017558086462292</v>
       </c>
       <c r="F23">
-        <v>0.714781617924819</v>
+        <v>1.03518520434517</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011951694785864</v>
+        <v>1.055906107358627</v>
       </c>
       <c r="J23">
-        <v>0.8063829715612386</v>
+        <v>1.026434738377375</v>
       </c>
       <c r="K23">
-        <v>1.00751843308462</v>
+        <v>1.055496519305836</v>
       </c>
       <c r="L23">
-        <v>0.8250870919038612</v>
+        <v>1.032484609681388</v>
       </c>
       <c r="M23">
-        <v>0.7373158719143231</v>
+        <v>1.049792997459653</v>
       </c>
       <c r="N23">
-        <v>0.8075281278742753</v>
+        <v>1.012627596692457</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7642452772946207</v>
+        <v>1.002264881135519</v>
       </c>
       <c r="D24">
-        <v>0.9930220359249431</v>
+        <v>1.04578593645557</v>
       </c>
       <c r="E24">
-        <v>0.8060374622912316</v>
+        <v>1.02243047975316</v>
       </c>
       <c r="F24">
-        <v>0.714781617924819</v>
+        <v>1.04047305907504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011951694785864</v>
+        <v>1.058099868868129</v>
       </c>
       <c r="J24">
-        <v>0.8063829715612386</v>
+        <v>1.029676024207139</v>
       </c>
       <c r="K24">
-        <v>1.00751843308462</v>
+        <v>1.059054033420951</v>
       </c>
       <c r="L24">
-        <v>0.8250870919038612</v>
+        <v>1.036074817575725</v>
       </c>
       <c r="M24">
-        <v>0.7373158719143231</v>
+        <v>1.053824841960197</v>
       </c>
       <c r="N24">
-        <v>0.8075281278742753</v>
+        <v>1.013713868048673</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7642452772946207</v>
+        <v>1.009077210373554</v>
       </c>
       <c r="D25">
-        <v>0.9930220359249431</v>
+        <v>1.0511730345698</v>
       </c>
       <c r="E25">
-        <v>0.8060374622912316</v>
+        <v>1.027922725909311</v>
       </c>
       <c r="F25">
-        <v>0.714781617924819</v>
+        <v>1.046426032912678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011951694785864</v>
+        <v>1.060519099718387</v>
       </c>
       <c r="J25">
-        <v>0.8063829715612386</v>
+        <v>1.033302904731652</v>
       </c>
       <c r="K25">
-        <v>1.00751843308462</v>
+        <v>1.06302569375618</v>
       </c>
       <c r="L25">
-        <v>0.8250870919038612</v>
+        <v>1.040102507204304</v>
       </c>
       <c r="M25">
-        <v>0.7373158719143231</v>
+        <v>1.058343991110885</v>
       </c>
       <c r="N25">
-        <v>0.8075281278742753</v>
+        <v>1.014929293253879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014334099004617</v>
+        <v>1.037092216978502</v>
       </c>
       <c r="D2">
-        <v>1.055335777570807</v>
+        <v>1.060815371643894</v>
       </c>
       <c r="E2">
-        <v>1.032182184562639</v>
+        <v>1.048074343306386</v>
       </c>
       <c r="F2">
-        <v>1.051036660684008</v>
+        <v>1.064150523653378</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062351717962077</v>
+        <v>1.04895077201893</v>
       </c>
       <c r="J2">
-        <v>1.036094371938308</v>
+        <v>1.042196970815508</v>
       </c>
       <c r="K2">
-        <v>1.066074491701478</v>
+        <v>1.063541124872434</v>
       </c>
       <c r="L2">
-        <v>1.043210663176074</v>
+        <v>1.050835203594305</v>
       </c>
       <c r="M2">
-        <v>1.061827976742531</v>
+        <v>1.06686723736307</v>
       </c>
       <c r="N2">
-        <v>1.01586462089606</v>
+        <v>1.018010165150772</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018055450932292</v>
+        <v>1.037887722550557</v>
       </c>
       <c r="D3">
-        <v>1.058284834188728</v>
+        <v>1.06145531354983</v>
       </c>
       <c r="E3">
-        <v>1.03520901148998</v>
+        <v>1.048767079419104</v>
       </c>
       <c r="F3">
-        <v>1.054309446843494</v>
+        <v>1.064891529607091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063628453502457</v>
+        <v>1.049164905398065</v>
       </c>
       <c r="J3">
-        <v>1.038065721850747</v>
+        <v>1.042637486616989</v>
       </c>
       <c r="K3">
-        <v>1.068222551043807</v>
+        <v>1.063996006584921</v>
       </c>
       <c r="L3">
-        <v>1.045410366764337</v>
+        <v>1.051340220795521</v>
       </c>
       <c r="M3">
-        <v>1.064291568591615</v>
+        <v>1.067423578369567</v>
       </c>
       <c r="N3">
-        <v>1.016525036304656</v>
+        <v>1.018157050878827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020421270564914</v>
+        <v>1.038403187605517</v>
       </c>
       <c r="D4">
-        <v>1.060160391911132</v>
+        <v>1.061869757957021</v>
       </c>
       <c r="E4">
-        <v>1.03713841296284</v>
+        <v>1.049216286123253</v>
       </c>
       <c r="F4">
-        <v>1.056393961376873</v>
+        <v>1.065371853381174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064430357371893</v>
+        <v>1.04930244466281</v>
       </c>
       <c r="J4">
-        <v>1.03931664060543</v>
+        <v>1.042922562915059</v>
       </c>
       <c r="K4">
-        <v>1.069583157529061</v>
+        <v>1.064290014229189</v>
       </c>
       <c r="L4">
-        <v>1.046808356444016</v>
+        <v>1.051667281315053</v>
       </c>
       <c r="M4">
-        <v>1.065856264100759</v>
+        <v>1.067783740624427</v>
       </c>
       <c r="N4">
-        <v>1.016944034987878</v>
+        <v>1.018252080372798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021406067633931</v>
+        <v>1.038620059588229</v>
       </c>
       <c r="D5">
-        <v>1.060941238292002</v>
+        <v>1.06204407430002</v>
       </c>
       <c r="E5">
-        <v>1.037942742507326</v>
+        <v>1.049405360481597</v>
       </c>
       <c r="F5">
-        <v>1.057262552557457</v>
+        <v>1.065573981239008</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06476177763165</v>
+        <v>1.049360021178175</v>
       </c>
       <c r="J5">
-        <v>1.039836760905311</v>
+        <v>1.043042415595882</v>
       </c>
       <c r="K5">
-        <v>1.070148281006554</v>
+        <v>1.064413534133785</v>
       </c>
       <c r="L5">
-        <v>1.047390147067883</v>
+        <v>1.051804843210279</v>
       </c>
       <c r="M5">
-        <v>1.066507185198702</v>
+        <v>1.067935192361303</v>
       </c>
       <c r="N5">
-        <v>1.017118232635826</v>
+        <v>1.018292026609366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021570853478813</v>
+        <v>1.038656483291677</v>
       </c>
       <c r="D6">
-        <v>1.061071903191871</v>
+        <v>1.062073347641271</v>
       </c>
       <c r="E6">
-        <v>1.03807740013966</v>
+        <v>1.049437120202105</v>
       </c>
       <c r="F6">
-        <v>1.057407944956574</v>
+        <v>1.065607931045865</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064817093135699</v>
+        <v>1.04936967413422</v>
       </c>
       <c r="J6">
-        <v>1.039923757287202</v>
+        <v>1.043062539737203</v>
       </c>
       <c r="K6">
-        <v>1.070242768695599</v>
+        <v>1.064434268877906</v>
       </c>
       <c r="L6">
-        <v>1.047487489078331</v>
+        <v>1.05182794426323</v>
       </c>
       <c r="M6">
-        <v>1.066616079119116</v>
+        <v>1.067960624041087</v>
       </c>
       <c r="N6">
-        <v>1.017147368171785</v>
+        <v>1.018298733500266</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020434467569367</v>
+        <v>1.03840608479202</v>
       </c>
       <c r="D7">
-        <v>1.060170855389734</v>
+        <v>1.061872086853421</v>
       </c>
       <c r="E7">
-        <v>1.037149186890082</v>
+        <v>1.04921881165126</v>
       </c>
       <c r="F7">
-        <v>1.056405597670999</v>
+        <v>1.065374553441369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064434808092489</v>
+        <v>1.049303214966873</v>
       </c>
       <c r="J7">
-        <v>1.039323612950398</v>
+        <v>1.042924164368154</v>
       </c>
       <c r="K7">
-        <v>1.069590735561808</v>
+        <v>1.064291665028139</v>
       </c>
       <c r="L7">
-        <v>1.046816153444021</v>
+        <v>1.05166911916778</v>
       </c>
       <c r="M7">
-        <v>1.065864988547497</v>
+        <v>1.067785764176846</v>
       </c>
       <c r="N7">
-        <v>1.016946370225579</v>
+        <v>1.018252614153322</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015600655476492</v>
+        <v>1.037360911675677</v>
       </c>
       <c r="D8">
-        <v>1.056339305392753</v>
+        <v>1.061031567382713</v>
       </c>
       <c r="E8">
-        <v>1.033211268751144</v>
+        <v>1.048308256722353</v>
       </c>
       <c r="F8">
-        <v>1.052149715959367</v>
+        <v>1.064400774160046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062788275407345</v>
+        <v>1.049023349884625</v>
       </c>
       <c r="J8">
-        <v>1.036765795428896</v>
+        <v>1.042345837540323</v>
       </c>
       <c r="K8">
-        <v>1.066806601826616</v>
+        <v>1.063694921895433</v>
       </c>
       <c r="L8">
-        <v>1.043959406635785</v>
+        <v>1.051005817499101</v>
       </c>
       <c r="M8">
-        <v>1.062666750570263</v>
+        <v>1.067055218656272</v>
       </c>
       <c r="N8">
-        <v>1.016089565240289</v>
+        <v>1.018059808770892</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006746184085949</v>
+        <v>1.035524776916731</v>
       </c>
       <c r="D9">
-        <v>1.049328653740089</v>
+        <v>1.059553307622953</v>
       </c>
       <c r="E9">
-        <v>1.026039953813369</v>
+        <v>1.046711184082629</v>
       </c>
       <c r="F9">
-        <v>1.044386281552486</v>
+        <v>1.06269140542562</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059696577823911</v>
+        <v>1.048522427193618</v>
       </c>
       <c r="J9">
-        <v>1.032062945860103</v>
+        <v>1.041327063939484</v>
       </c>
       <c r="K9">
-        <v>1.061669076294734</v>
+        <v>1.062640918470752</v>
       </c>
       <c r="L9">
-        <v>1.038724220345288</v>
+        <v>1.049839211990815</v>
       </c>
       <c r="M9">
-        <v>1.056798049828861</v>
+        <v>1.065769302154028</v>
       </c>
       <c r="N9">
-        <v>1.014513779687575</v>
+        <v>1.017719964248749</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000596431175407</v>
+        <v>1.034304557811647</v>
       </c>
       <c r="D10">
-        <v>1.044468059505721</v>
+        <v>1.05856983673471</v>
       </c>
       <c r="E10">
-        <v>1.021089965299489</v>
+        <v>1.045651591387235</v>
       </c>
       <c r="F10">
-        <v>1.039018842409737</v>
+        <v>1.061556362500615</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057500553168254</v>
+        <v>1.048183315394869</v>
       </c>
       <c r="J10">
-        <v>1.028786405347387</v>
+        <v>1.040648170448369</v>
       </c>
       <c r="K10">
-        <v>1.058078307914693</v>
+        <v>1.061936687766614</v>
       </c>
       <c r="L10">
-        <v>1.035088595890433</v>
+        <v>1.049063056716841</v>
       </c>
       <c r="M10">
-        <v>1.052717611113223</v>
+        <v>1.06491306917612</v>
       </c>
       <c r="N10">
-        <v>1.013415726763728</v>
+        <v>1.017493364644664</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9978701411421983</v>
+        <v>1.033777130742442</v>
       </c>
       <c r="D11">
-        <v>1.042316052123636</v>
+        <v>1.058144492108757</v>
       </c>
       <c r="E11">
-        <v>1.018903383658526</v>
+        <v>1.045194016275675</v>
       </c>
       <c r="F11">
-        <v>1.036645806746865</v>
+        <v>1.061065979685741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056516004197357</v>
+        <v>1.048035263640485</v>
       </c>
       <c r="J11">
-        <v>1.027331793948176</v>
+        <v>1.040354287310121</v>
       </c>
       <c r="K11">
-        <v>1.056481761967074</v>
+        <v>1.061631398000886</v>
       </c>
       <c r="L11">
-        <v>1.033477402773025</v>
+        <v>1.048727367407224</v>
       </c>
       <c r="M11">
-        <v>1.050908216037741</v>
+        <v>1.064542580800266</v>
       </c>
       <c r="N11">
-        <v>1.012928232990641</v>
+        <v>1.017395241864037</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9968475104247637</v>
+        <v>1.033581363321515</v>
       </c>
       <c r="D12">
-        <v>1.041509317825612</v>
+        <v>1.057986578147261</v>
       </c>
       <c r="E12">
-        <v>1.018084421968112</v>
+        <v>1.045024240188311</v>
       </c>
       <c r="F12">
-        <v>1.035756704347557</v>
+        <v>1.060883996903765</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056145092840152</v>
+        <v>1.047980089181951</v>
       </c>
       <c r="J12">
-        <v>1.026785891122393</v>
+        <v>1.040245139731113</v>
       </c>
       <c r="K12">
-        <v>1.055882249849498</v>
+        <v>1.061517948362093</v>
       </c>
       <c r="L12">
-        <v>1.032873165104865</v>
+        <v>1.048602737769053</v>
       </c>
       <c r="M12">
-        <v>1.050229493226189</v>
+        <v>1.064405006704927</v>
       </c>
       <c r="N12">
-        <v>1.012745280736355</v>
+        <v>1.017358794632384</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9970673264560707</v>
+        <v>1.033623349620386</v>
       </c>
       <c r="D13">
-        <v>1.041682703671235</v>
+        <v>1.058020447665434</v>
       </c>
       <c r="E13">
-        <v>1.018260402902112</v>
+        <v>1.045060649209299</v>
       </c>
       <c r="F13">
-        <v>1.035947771137705</v>
+        <v>1.060923025225014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056224892662407</v>
+        <v>1.04799193248593</v>
       </c>
       <c r="J13">
-        <v>1.026903245828515</v>
+        <v>1.040268551615525</v>
       </c>
       <c r="K13">
-        <v>1.056011144237737</v>
+        <v>1.061542285995571</v>
       </c>
       <c r="L13">
-        <v>1.033003040823819</v>
+        <v>1.048629468494839</v>
       </c>
       <c r="M13">
-        <v>1.050375385755725</v>
+        <v>1.064434514895769</v>
       </c>
       <c r="N13">
-        <v>1.01278461061422</v>
+        <v>1.017366612682284</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9977858160814005</v>
+        <v>1.033760945629038</v>
       </c>
       <c r="D14">
-        <v>1.042249519440678</v>
+        <v>1.05813143728851</v>
       </c>
       <c r="E14">
-        <v>1.018835827745864</v>
+        <v>1.045179978690764</v>
       </c>
       <c r="F14">
-        <v>1.036572471167419</v>
+        <v>1.061050933507903</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056485451644239</v>
+        <v>1.048030706598392</v>
       </c>
       <c r="J14">
-        <v>1.027286784847224</v>
+        <v>1.040345264849833</v>
       </c>
       <c r="K14">
-        <v>1.056432339666511</v>
+        <v>1.06162202125796</v>
       </c>
       <c r="L14">
-        <v>1.033427575285033</v>
+        <v>1.048717064242926</v>
       </c>
       <c r="M14">
-        <v>1.050852249352624</v>
+        <v>1.064531208019877</v>
       </c>
       <c r="N14">
-        <v>1.012913148763703</v>
+        <v>1.017392229122948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9982271672154466</v>
+        <v>1.033845742006801</v>
       </c>
       <c r="D15">
-        <v>1.042597766691904</v>
+        <v>1.05819983205417</v>
       </c>
       <c r="E15">
-        <v>1.019189460639647</v>
+        <v>1.045253526453985</v>
       </c>
       <c r="F15">
-        <v>1.036956346219281</v>
+        <v>1.061129764248654</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056645296169777</v>
+        <v>1.048054572594329</v>
       </c>
       <c r="J15">
-        <v>1.027522347987532</v>
+        <v>1.040392532261599</v>
       </c>
       <c r="K15">
-        <v>1.056690986242982</v>
+        <v>1.06167114201922</v>
       </c>
       <c r="L15">
-        <v>1.033688373824474</v>
+        <v>1.048771042913926</v>
       </c>
       <c r="M15">
-        <v>1.051145174371454</v>
+        <v>1.064590789435332</v>
       </c>
       <c r="N15">
-        <v>1.012992094757797</v>
+        <v>1.01740801226384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000775993241507</v>
+        <v>1.034339581286561</v>
       </c>
       <c r="D16">
-        <v>1.044609860982385</v>
+        <v>1.058598076273868</v>
       </c>
       <c r="E16">
-        <v>1.021234147947863</v>
+        <v>1.045681985347268</v>
       </c>
       <c r="F16">
-        <v>1.039175277069884</v>
+        <v>1.061588930922407</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057565172764527</v>
+        <v>1.04819311560437</v>
       </c>
       <c r="J16">
-        <v>1.028882170207338</v>
+        <v>1.040667676352029</v>
       </c>
       <c r="K16">
-        <v>1.058183368252639</v>
+        <v>1.061956941541029</v>
       </c>
       <c r="L16">
-        <v>1.035194728729912</v>
+        <v>1.04908534368351</v>
       </c>
       <c r="M16">
-        <v>1.052836778105649</v>
+        <v>1.064937663030438</v>
       </c>
       <c r="N16">
-        <v>1.01344782094618</v>
+        <v>1.017499876695028</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002357526404714</v>
+        <v>1.034649605497526</v>
       </c>
       <c r="D17">
-        <v>1.045859133931409</v>
+        <v>1.058848020999317</v>
       </c>
       <c r="E17">
-        <v>1.022504968294282</v>
+        <v>1.045951078529841</v>
       </c>
       <c r="F17">
-        <v>1.04055385187399</v>
+        <v>1.061877249655842</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058133073333478</v>
+        <v>1.048279695601362</v>
       </c>
       <c r="J17">
-        <v>1.029725408838633</v>
+        <v>1.040840289937949</v>
       </c>
       <c r="K17">
-        <v>1.059108181638231</v>
+        <v>1.062136122621439</v>
       </c>
       <c r="L17">
-        <v>1.036129583907687</v>
+        <v>1.049282602053972</v>
       </c>
       <c r="M17">
-        <v>1.05388632087017</v>
+        <v>1.065155320198474</v>
       </c>
       <c r="N17">
-        <v>1.013730418397246</v>
+        <v>1.017557500190922</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003273921061818</v>
+        <v>1.034830527545267</v>
       </c>
       <c r="D18">
-        <v>1.046583265297128</v>
+        <v>1.058993858087746</v>
       </c>
       <c r="E18">
-        <v>1.023242067200113</v>
+        <v>1.046108155102136</v>
       </c>
       <c r="F18">
-        <v>1.041353254578958</v>
+        <v>1.062045526912173</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058461083358077</v>
+        <v>1.048330079040511</v>
       </c>
       <c r="J18">
-        <v>1.030213811629974</v>
+        <v>1.04094098036507</v>
       </c>
       <c r="K18">
-        <v>1.059643599486488</v>
+        <v>1.062240601723229</v>
       </c>
       <c r="L18">
-        <v>1.036671319936222</v>
+        <v>1.049397697149335</v>
       </c>
       <c r="M18">
-        <v>1.054494414097301</v>
+        <v>1.065282301501732</v>
       </c>
       <c r="N18">
-        <v>1.013894096815199</v>
+        <v>1.017591110615693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003585368450789</v>
+        <v>1.034892232525608</v>
       </c>
       <c r="D19">
-        <v>1.046829411888139</v>
+        <v>1.059043592937482</v>
       </c>
       <c r="E19">
-        <v>1.023492703293865</v>
+        <v>1.046161734287948</v>
       </c>
       <c r="F19">
-        <v>1.041625042603668</v>
+        <v>1.062102922988478</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058572381698034</v>
+        <v>1.048347238581452</v>
       </c>
       <c r="J19">
-        <v>1.030379766372013</v>
+        <v>1.040975314487826</v>
       </c>
       <c r="K19">
-        <v>1.059825489315778</v>
+        <v>1.062276220547631</v>
       </c>
       <c r="L19">
-        <v>1.036855442361352</v>
+        <v>1.049436947936695</v>
       </c>
       <c r="M19">
-        <v>1.05470107203447</v>
+        <v>1.065325603125306</v>
       </c>
       <c r="N19">
-        <v>1.013949712871459</v>
+        <v>1.01760257082175</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002188475553921</v>
+        <v>1.034616333493434</v>
       </c>
       <c r="D20">
-        <v>1.045725571144318</v>
+        <v>1.058821199257651</v>
       </c>
       <c r="E20">
-        <v>1.022369052415432</v>
+        <v>1.045922195047032</v>
       </c>
       <c r="F20">
-        <v>1.040406431793799</v>
+        <v>1.061846304823135</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058072478827052</v>
+        <v>1.048270418503542</v>
       </c>
       <c r="J20">
-        <v>1.029635295025844</v>
+        <v>1.040821769312815</v>
       </c>
       <c r="K20">
-        <v>1.059009374228173</v>
+        <v>1.062116901711952</v>
       </c>
       <c r="L20">
-        <v>1.036029651444627</v>
+        <v>1.049261434194595</v>
       </c>
       <c r="M20">
-        <v>1.053774139342916</v>
+        <v>1.065131964987519</v>
       </c>
       <c r="N20">
-        <v>1.013700218404792</v>
+        <v>1.017551317771511</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9975745175343169</v>
+        <v>1.033720423085875</v>
       </c>
       <c r="D21">
-        <v>1.042082812376298</v>
+        <v>1.058098751441335</v>
       </c>
       <c r="E21">
-        <v>1.018666568596961</v>
+        <v>1.045144833935197</v>
       </c>
       <c r="F21">
-        <v>1.036388726319995</v>
+        <v>1.061013263072384</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05640886847321</v>
+        <v>1.048019293589739</v>
       </c>
       <c r="J21">
-        <v>1.027173998367499</v>
+        <v>1.040322674325226</v>
       </c>
       <c r="K21">
-        <v>1.056308488889688</v>
+        <v>1.061598542616996</v>
       </c>
       <c r="L21">
-        <v>1.033302721528144</v>
+        <v>1.048691267800728</v>
       </c>
       <c r="M21">
-        <v>1.050712010018541</v>
+        <v>1.064502733136993</v>
       </c>
       <c r="N21">
-        <v>1.012875349816989</v>
+        <v>1.017384685717447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9946156476300294</v>
+        <v>1.033157953907037</v>
       </c>
       <c r="D22">
-        <v>1.039749605399901</v>
+        <v>1.057644971996528</v>
       </c>
       <c r="E22">
-        <v>1.016299365111655</v>
+        <v>1.044657163041529</v>
       </c>
       <c r="F22">
-        <v>1.033818204721237</v>
+        <v>1.060490465300668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055332689996378</v>
+        <v>1.047860352081028</v>
       </c>
       <c r="J22">
-        <v>1.025593997979587</v>
+        <v>1.040008953450693</v>
       </c>
       <c r="K22">
-        <v>1.054572706002308</v>
+        <v>1.061272332951849</v>
       </c>
       <c r="L22">
-        <v>1.031554699092314</v>
+        <v>1.048333131314974</v>
       </c>
       <c r="M22">
-        <v>1.048748222411564</v>
+        <v>1.06410735273233</v>
       </c>
       <c r="N22">
-        <v>1.012345835464467</v>
+        <v>1.017279917413461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9961898411490325</v>
+        <v>1.033456050610137</v>
       </c>
       <c r="D23">
-        <v>1.040990639380567</v>
+        <v>1.057885485492986</v>
       </c>
       <c r="E23">
-        <v>1.017558086462292</v>
+        <v>1.044915582897701</v>
       </c>
       <c r="F23">
-        <v>1.03518520434517</v>
+        <v>1.060767517732051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055906107358627</v>
+        <v>1.047944709123275</v>
       </c>
       <c r="J23">
-        <v>1.026434738377375</v>
+        <v>1.040175254792699</v>
       </c>
       <c r="K23">
-        <v>1.055496519305836</v>
+        <v>1.061445290446403</v>
       </c>
       <c r="L23">
-        <v>1.032484609681388</v>
+        <v>1.048522952566429</v>
       </c>
       <c r="M23">
-        <v>1.049792997459653</v>
+        <v>1.064316927767412</v>
       </c>
       <c r="N23">
-        <v>1.012627596692457</v>
+        <v>1.017335456922295</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002264881135519</v>
+        <v>1.034631367401535</v>
       </c>
       <c r="D24">
-        <v>1.04578593645557</v>
+        <v>1.058833318698427</v>
       </c>
       <c r="E24">
-        <v>1.02243047975316</v>
+        <v>1.045935245882005</v>
       </c>
       <c r="F24">
-        <v>1.04047305907504</v>
+        <v>1.061860287134371</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058099868868129</v>
+        <v>1.048274610786995</v>
       </c>
       <c r="J24">
-        <v>1.029676024207139</v>
+        <v>1.040830137962045</v>
       </c>
       <c r="K24">
-        <v>1.059054033420951</v>
+        <v>1.062125586919453</v>
       </c>
       <c r="L24">
-        <v>1.036074817575725</v>
+        <v>1.049270998923039</v>
       </c>
       <c r="M24">
-        <v>1.053824841960197</v>
+        <v>1.065142518123299</v>
       </c>
       <c r="N24">
-        <v>1.013713868048673</v>
+        <v>1.017554111341979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009077210373554</v>
+        <v>1.035998787564307</v>
       </c>
       <c r="D25">
-        <v>1.0511730345698</v>
+        <v>1.059935123491437</v>
       </c>
       <c r="E25">
-        <v>1.027922725909311</v>
+        <v>1.047123171496796</v>
       </c>
       <c r="F25">
-        <v>1.046426032912678</v>
+        <v>1.063132528120746</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060519099718387</v>
+        <v>1.048652841979254</v>
       </c>
       <c r="J25">
-        <v>1.033302904731652</v>
+        <v>1.041590396196421</v>
       </c>
       <c r="K25">
-        <v>1.06302569375618</v>
+        <v>1.062913685919552</v>
       </c>
       <c r="L25">
-        <v>1.040102507204304</v>
+        <v>1.050140535364892</v>
       </c>
       <c r="M25">
-        <v>1.058343991110885</v>
+        <v>1.06610156591913</v>
       </c>
       <c r="N25">
-        <v>1.014929293253879</v>
+        <v>1.017807830737182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037092216978502</v>
+        <v>1.014334099004617</v>
       </c>
       <c r="D2">
-        <v>1.060815371643894</v>
+        <v>1.055335777570807</v>
       </c>
       <c r="E2">
-        <v>1.048074343306386</v>
+        <v>1.032182184562638</v>
       </c>
       <c r="F2">
-        <v>1.064150523653378</v>
+        <v>1.051036660684008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04895077201893</v>
+        <v>1.062351717962077</v>
       </c>
       <c r="J2">
-        <v>1.042196970815508</v>
+        <v>1.036094371938308</v>
       </c>
       <c r="K2">
-        <v>1.063541124872434</v>
+        <v>1.066074491701478</v>
       </c>
       <c r="L2">
-        <v>1.050835203594305</v>
+        <v>1.043210663176074</v>
       </c>
       <c r="M2">
-        <v>1.06686723736307</v>
+        <v>1.061827976742531</v>
       </c>
       <c r="N2">
-        <v>1.018010165150772</v>
+        <v>1.015864620896059</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037887722550557</v>
+        <v>1.018055450932291</v>
       </c>
       <c r="D3">
-        <v>1.06145531354983</v>
+        <v>1.058284834188728</v>
       </c>
       <c r="E3">
-        <v>1.048767079419104</v>
+        <v>1.035209011489979</v>
       </c>
       <c r="F3">
-        <v>1.064891529607091</v>
+        <v>1.054309446843493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049164905398065</v>
+        <v>1.063628453502457</v>
       </c>
       <c r="J3">
-        <v>1.042637486616989</v>
+        <v>1.038065721850746</v>
       </c>
       <c r="K3">
-        <v>1.063996006584921</v>
+        <v>1.068222551043807</v>
       </c>
       <c r="L3">
-        <v>1.051340220795521</v>
+        <v>1.045410366764336</v>
       </c>
       <c r="M3">
-        <v>1.067423578369567</v>
+        <v>1.064291568591614</v>
       </c>
       <c r="N3">
-        <v>1.018157050878827</v>
+        <v>1.016525036304656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038403187605517</v>
+        <v>1.020421270564913</v>
       </c>
       <c r="D4">
-        <v>1.061869757957021</v>
+        <v>1.060160391911132</v>
       </c>
       <c r="E4">
-        <v>1.049216286123253</v>
+        <v>1.03713841296284</v>
       </c>
       <c r="F4">
-        <v>1.065371853381174</v>
+        <v>1.056393961376872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04930244466281</v>
+        <v>1.064430357371893</v>
       </c>
       <c r="J4">
-        <v>1.042922562915059</v>
+        <v>1.039316640605429</v>
       </c>
       <c r="K4">
-        <v>1.064290014229189</v>
+        <v>1.06958315752906</v>
       </c>
       <c r="L4">
-        <v>1.051667281315053</v>
+        <v>1.046808356444015</v>
       </c>
       <c r="M4">
-        <v>1.067783740624427</v>
+        <v>1.065856264100758</v>
       </c>
       <c r="N4">
-        <v>1.018252080372798</v>
+        <v>1.016944034987878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038620059588229</v>
+        <v>1.02140606763393</v>
       </c>
       <c r="D5">
-        <v>1.06204407430002</v>
+        <v>1.060941238292</v>
       </c>
       <c r="E5">
-        <v>1.049405360481597</v>
+        <v>1.037942742507325</v>
       </c>
       <c r="F5">
-        <v>1.065573981239008</v>
+        <v>1.057262552557455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049360021178175</v>
+        <v>1.064761777631649</v>
       </c>
       <c r="J5">
-        <v>1.043042415595882</v>
+        <v>1.03983676090531</v>
       </c>
       <c r="K5">
-        <v>1.064413534133785</v>
+        <v>1.070148281006552</v>
       </c>
       <c r="L5">
-        <v>1.051804843210279</v>
+        <v>1.047390147067881</v>
       </c>
       <c r="M5">
-        <v>1.067935192361303</v>
+        <v>1.0665071851987</v>
       </c>
       <c r="N5">
-        <v>1.018292026609366</v>
+        <v>1.017118232635826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038656483291677</v>
+        <v>1.021570853478811</v>
       </c>
       <c r="D6">
-        <v>1.062073347641271</v>
+        <v>1.061071903191869</v>
       </c>
       <c r="E6">
-        <v>1.049437120202105</v>
+        <v>1.038077400139658</v>
       </c>
       <c r="F6">
-        <v>1.065607931045865</v>
+        <v>1.057407944956573</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04936967413422</v>
+        <v>1.064817093135699</v>
       </c>
       <c r="J6">
-        <v>1.043062539737203</v>
+        <v>1.039923757287201</v>
       </c>
       <c r="K6">
-        <v>1.064434268877906</v>
+        <v>1.070242768695598</v>
       </c>
       <c r="L6">
-        <v>1.05182794426323</v>
+        <v>1.047487489078329</v>
       </c>
       <c r="M6">
-        <v>1.067960624041087</v>
+        <v>1.066616079119115</v>
       </c>
       <c r="N6">
-        <v>1.018298733500266</v>
+        <v>1.017147368171785</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03840608479202</v>
+        <v>1.020434467569367</v>
       </c>
       <c r="D7">
-        <v>1.061872086853421</v>
+        <v>1.060170855389734</v>
       </c>
       <c r="E7">
-        <v>1.04921881165126</v>
+        <v>1.037149186890081</v>
       </c>
       <c r="F7">
-        <v>1.065374553441369</v>
+        <v>1.056405597670999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049303214966873</v>
+        <v>1.064434808092489</v>
       </c>
       <c r="J7">
-        <v>1.042924164368154</v>
+        <v>1.039323612950398</v>
       </c>
       <c r="K7">
-        <v>1.064291665028139</v>
+        <v>1.069590735561807</v>
       </c>
       <c r="L7">
-        <v>1.05166911916778</v>
+        <v>1.046816153444021</v>
       </c>
       <c r="M7">
-        <v>1.067785764176846</v>
+        <v>1.065864988547496</v>
       </c>
       <c r="N7">
-        <v>1.018252614153322</v>
+        <v>1.016946370225579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037360911675677</v>
+        <v>1.015600655476491</v>
       </c>
       <c r="D8">
-        <v>1.061031567382713</v>
+        <v>1.056339305392752</v>
       </c>
       <c r="E8">
-        <v>1.048308256722353</v>
+        <v>1.033211268751144</v>
       </c>
       <c r="F8">
-        <v>1.064400774160046</v>
+        <v>1.052149715959366</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049023349884625</v>
+        <v>1.062788275407344</v>
       </c>
       <c r="J8">
-        <v>1.042345837540323</v>
+        <v>1.036765795428896</v>
       </c>
       <c r="K8">
-        <v>1.063694921895433</v>
+        <v>1.066806601826615</v>
       </c>
       <c r="L8">
-        <v>1.051005817499101</v>
+        <v>1.043959406635784</v>
       </c>
       <c r="M8">
-        <v>1.067055218656272</v>
+        <v>1.062666750570262</v>
       </c>
       <c r="N8">
-        <v>1.018059808770892</v>
+        <v>1.016089565240289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035524776916731</v>
+        <v>1.006746184085949</v>
       </c>
       <c r="D9">
-        <v>1.059553307622953</v>
+        <v>1.049328653740089</v>
       </c>
       <c r="E9">
-        <v>1.046711184082629</v>
+        <v>1.026039953813369</v>
       </c>
       <c r="F9">
-        <v>1.06269140542562</v>
+        <v>1.044386281552486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048522427193618</v>
+        <v>1.059696577823911</v>
       </c>
       <c r="J9">
-        <v>1.041327063939484</v>
+        <v>1.032062945860103</v>
       </c>
       <c r="K9">
-        <v>1.062640918470752</v>
+        <v>1.061669076294735</v>
       </c>
       <c r="L9">
-        <v>1.049839211990815</v>
+        <v>1.038724220345288</v>
       </c>
       <c r="M9">
-        <v>1.065769302154028</v>
+        <v>1.056798049828861</v>
       </c>
       <c r="N9">
-        <v>1.017719964248749</v>
+        <v>1.014513779687575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034304557811647</v>
+        <v>1.000596431175407</v>
       </c>
       <c r="D10">
-        <v>1.05856983673471</v>
+        <v>1.044468059505721</v>
       </c>
       <c r="E10">
-        <v>1.045651591387235</v>
+        <v>1.021089965299488</v>
       </c>
       <c r="F10">
-        <v>1.061556362500615</v>
+        <v>1.039018842409737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048183315394869</v>
+        <v>1.057500553168254</v>
       </c>
       <c r="J10">
-        <v>1.040648170448369</v>
+        <v>1.028786405347387</v>
       </c>
       <c r="K10">
-        <v>1.061936687766614</v>
+        <v>1.058078307914694</v>
       </c>
       <c r="L10">
-        <v>1.049063056716841</v>
+        <v>1.035088595890433</v>
       </c>
       <c r="M10">
-        <v>1.06491306917612</v>
+        <v>1.052717611113223</v>
       </c>
       <c r="N10">
-        <v>1.017493364644664</v>
+        <v>1.013415726763728</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033777130742442</v>
+        <v>0.9978701411421979</v>
       </c>
       <c r="D11">
-        <v>1.058144492108757</v>
+        <v>1.042316052123636</v>
       </c>
       <c r="E11">
-        <v>1.045194016275675</v>
+        <v>1.018903383658525</v>
       </c>
       <c r="F11">
-        <v>1.061065979685741</v>
+        <v>1.036645806746865</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048035263640485</v>
+        <v>1.056516004197356</v>
       </c>
       <c r="J11">
-        <v>1.040354287310121</v>
+        <v>1.027331793948176</v>
       </c>
       <c r="K11">
-        <v>1.061631398000886</v>
+        <v>1.056481761967074</v>
       </c>
       <c r="L11">
-        <v>1.048727367407224</v>
+        <v>1.033477402773024</v>
       </c>
       <c r="M11">
-        <v>1.064542580800266</v>
+        <v>1.05090821603774</v>
       </c>
       <c r="N11">
-        <v>1.017395241864037</v>
+        <v>1.012928232990641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033581363321515</v>
+        <v>0.9968475104247639</v>
       </c>
       <c r="D12">
-        <v>1.057986578147261</v>
+        <v>1.041509317825612</v>
       </c>
       <c r="E12">
-        <v>1.045024240188311</v>
+        <v>1.018084421968113</v>
       </c>
       <c r="F12">
-        <v>1.060883996903765</v>
+        <v>1.035756704347558</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047980089181951</v>
+        <v>1.056145092840152</v>
       </c>
       <c r="J12">
-        <v>1.040245139731113</v>
+        <v>1.026785891122394</v>
       </c>
       <c r="K12">
-        <v>1.061517948362093</v>
+        <v>1.055882249849498</v>
       </c>
       <c r="L12">
-        <v>1.048602737769053</v>
+        <v>1.032873165104865</v>
       </c>
       <c r="M12">
-        <v>1.064405006704927</v>
+        <v>1.050229493226189</v>
       </c>
       <c r="N12">
-        <v>1.017358794632384</v>
+        <v>1.012745280736355</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033623349620386</v>
+        <v>0.9970673264560692</v>
       </c>
       <c r="D13">
-        <v>1.058020447665434</v>
+        <v>1.041682703671233</v>
       </c>
       <c r="E13">
-        <v>1.045060649209299</v>
+        <v>1.01826040290211</v>
       </c>
       <c r="F13">
-        <v>1.060923025225014</v>
+        <v>1.035947771137703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04799193248593</v>
+        <v>1.056224892662406</v>
       </c>
       <c r="J13">
-        <v>1.040268551615525</v>
+        <v>1.026903245828513</v>
       </c>
       <c r="K13">
-        <v>1.061542285995571</v>
+        <v>1.056011144237736</v>
       </c>
       <c r="L13">
-        <v>1.048629468494839</v>
+        <v>1.033003040823818</v>
       </c>
       <c r="M13">
-        <v>1.064434514895769</v>
+        <v>1.050375385755723</v>
       </c>
       <c r="N13">
-        <v>1.017366612682284</v>
+        <v>1.012784610614219</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033760945629038</v>
+        <v>0.9977858160813988</v>
       </c>
       <c r="D14">
-        <v>1.05813143728851</v>
+        <v>1.042249519440678</v>
       </c>
       <c r="E14">
-        <v>1.045179978690764</v>
+        <v>1.018835827745862</v>
       </c>
       <c r="F14">
-        <v>1.061050933507903</v>
+        <v>1.036572471167417</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048030706598392</v>
+        <v>1.056485451644238</v>
       </c>
       <c r="J14">
-        <v>1.040345264849833</v>
+        <v>1.027286784847223</v>
       </c>
       <c r="K14">
-        <v>1.06162202125796</v>
+        <v>1.05643233966651</v>
       </c>
       <c r="L14">
-        <v>1.048717064242926</v>
+        <v>1.033427575285032</v>
       </c>
       <c r="M14">
-        <v>1.064531208019877</v>
+        <v>1.050852249352623</v>
       </c>
       <c r="N14">
-        <v>1.017392229122948</v>
+        <v>1.012913148763702</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033845742006801</v>
+        <v>0.9982271672154468</v>
       </c>
       <c r="D15">
-        <v>1.05819983205417</v>
+        <v>1.042597766691905</v>
       </c>
       <c r="E15">
-        <v>1.045253526453985</v>
+        <v>1.019189460639648</v>
       </c>
       <c r="F15">
-        <v>1.061129764248654</v>
+        <v>1.036956346219281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048054572594329</v>
+        <v>1.056645296169777</v>
       </c>
       <c r="J15">
-        <v>1.040392532261599</v>
+        <v>1.027522347987532</v>
       </c>
       <c r="K15">
-        <v>1.06167114201922</v>
+        <v>1.056690986242982</v>
       </c>
       <c r="L15">
-        <v>1.048771042913926</v>
+        <v>1.033688373824475</v>
       </c>
       <c r="M15">
-        <v>1.064590789435332</v>
+        <v>1.051145174371454</v>
       </c>
       <c r="N15">
-        <v>1.01740801226384</v>
+        <v>1.012992094757797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034339581286561</v>
+        <v>1.000775993241506</v>
       </c>
       <c r="D16">
-        <v>1.058598076273868</v>
+        <v>1.044609860982384</v>
       </c>
       <c r="E16">
-        <v>1.045681985347268</v>
+        <v>1.021234147947861</v>
       </c>
       <c r="F16">
-        <v>1.061588930922407</v>
+        <v>1.039175277069883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04819311560437</v>
+        <v>1.057565172764526</v>
       </c>
       <c r="J16">
-        <v>1.040667676352029</v>
+        <v>1.028882170207337</v>
       </c>
       <c r="K16">
-        <v>1.061956941541029</v>
+        <v>1.058183368252638</v>
       </c>
       <c r="L16">
-        <v>1.04908534368351</v>
+        <v>1.035194728729911</v>
       </c>
       <c r="M16">
-        <v>1.064937663030438</v>
+        <v>1.052836778105648</v>
       </c>
       <c r="N16">
-        <v>1.017499876695028</v>
+        <v>1.013447820946179</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034649605497526</v>
+        <v>1.002357526404714</v>
       </c>
       <c r="D17">
-        <v>1.058848020999317</v>
+        <v>1.045859133931408</v>
       </c>
       <c r="E17">
-        <v>1.045951078529841</v>
+        <v>1.022504968294282</v>
       </c>
       <c r="F17">
-        <v>1.061877249655842</v>
+        <v>1.04055385187399</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048279695601362</v>
+        <v>1.058133073333478</v>
       </c>
       <c r="J17">
-        <v>1.040840289937949</v>
+        <v>1.029725408838633</v>
       </c>
       <c r="K17">
-        <v>1.062136122621439</v>
+        <v>1.05910818163823</v>
       </c>
       <c r="L17">
-        <v>1.049282602053972</v>
+        <v>1.036129583907687</v>
       </c>
       <c r="M17">
-        <v>1.065155320198474</v>
+        <v>1.053886320870169</v>
       </c>
       <c r="N17">
-        <v>1.017557500190922</v>
+        <v>1.013730418397246</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034830527545267</v>
+        <v>1.003273921061818</v>
       </c>
       <c r="D18">
-        <v>1.058993858087746</v>
+        <v>1.046583265297128</v>
       </c>
       <c r="E18">
-        <v>1.046108155102136</v>
+        <v>1.023242067200112</v>
       </c>
       <c r="F18">
-        <v>1.062045526912173</v>
+        <v>1.041353254578957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048330079040511</v>
+        <v>1.058461083358077</v>
       </c>
       <c r="J18">
-        <v>1.04094098036507</v>
+        <v>1.030213811629973</v>
       </c>
       <c r="K18">
-        <v>1.062240601723229</v>
+        <v>1.059643599486488</v>
       </c>
       <c r="L18">
-        <v>1.049397697149335</v>
+        <v>1.036671319936221</v>
       </c>
       <c r="M18">
-        <v>1.065282301501732</v>
+        <v>1.0544944140973</v>
       </c>
       <c r="N18">
-        <v>1.017591110615693</v>
+        <v>1.013894096815198</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034892232525608</v>
+        <v>1.003585368450789</v>
       </c>
       <c r="D19">
-        <v>1.059043592937482</v>
+        <v>1.046829411888139</v>
       </c>
       <c r="E19">
-        <v>1.046161734287948</v>
+        <v>1.023492703293865</v>
       </c>
       <c r="F19">
-        <v>1.062102922988478</v>
+        <v>1.041625042603668</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048347238581452</v>
+        <v>1.058572381698034</v>
       </c>
       <c r="J19">
-        <v>1.040975314487826</v>
+        <v>1.030379766372013</v>
       </c>
       <c r="K19">
-        <v>1.062276220547631</v>
+        <v>1.059825489315778</v>
       </c>
       <c r="L19">
-        <v>1.049436947936695</v>
+        <v>1.036855442361352</v>
       </c>
       <c r="M19">
-        <v>1.065325603125306</v>
+        <v>1.05470107203447</v>
       </c>
       <c r="N19">
-        <v>1.01760257082175</v>
+        <v>1.013949712871459</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034616333493434</v>
+        <v>1.002188475553921</v>
       </c>
       <c r="D20">
-        <v>1.058821199257651</v>
+        <v>1.045725571144318</v>
       </c>
       <c r="E20">
-        <v>1.045922195047032</v>
+        <v>1.022369052415431</v>
       </c>
       <c r="F20">
-        <v>1.061846304823135</v>
+        <v>1.040406431793798</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048270418503542</v>
+        <v>1.058072478827052</v>
       </c>
       <c r="J20">
-        <v>1.040821769312815</v>
+        <v>1.029635295025844</v>
       </c>
       <c r="K20">
-        <v>1.062116901711952</v>
+        <v>1.059009374228173</v>
       </c>
       <c r="L20">
-        <v>1.049261434194595</v>
+        <v>1.036029651444626</v>
       </c>
       <c r="M20">
-        <v>1.065131964987519</v>
+        <v>1.053774139342916</v>
       </c>
       <c r="N20">
-        <v>1.017551317771511</v>
+        <v>1.013700218404792</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033720423085875</v>
+        <v>0.9975745175343169</v>
       </c>
       <c r="D21">
-        <v>1.058098751441335</v>
+        <v>1.042082812376298</v>
       </c>
       <c r="E21">
-        <v>1.045144833935197</v>
+        <v>1.018666568596961</v>
       </c>
       <c r="F21">
-        <v>1.061013263072384</v>
+        <v>1.036388726319995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048019293589739</v>
+        <v>1.05640886847321</v>
       </c>
       <c r="J21">
-        <v>1.040322674325226</v>
+        <v>1.027173998367499</v>
       </c>
       <c r="K21">
-        <v>1.061598542616996</v>
+        <v>1.056308488889688</v>
       </c>
       <c r="L21">
-        <v>1.048691267800728</v>
+        <v>1.033302721528144</v>
       </c>
       <c r="M21">
-        <v>1.064502733136993</v>
+        <v>1.050712010018541</v>
       </c>
       <c r="N21">
-        <v>1.017384685717447</v>
+        <v>1.012875349816989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033157953907037</v>
+        <v>0.9946156476300285</v>
       </c>
       <c r="D22">
-        <v>1.057644971996528</v>
+        <v>1.039749605399901</v>
       </c>
       <c r="E22">
-        <v>1.044657163041529</v>
+        <v>1.016299365111654</v>
       </c>
       <c r="F22">
-        <v>1.060490465300668</v>
+        <v>1.033818204721237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047860352081028</v>
+        <v>1.055332689996378</v>
       </c>
       <c r="J22">
-        <v>1.040008953450693</v>
+        <v>1.025593997979586</v>
       </c>
       <c r="K22">
-        <v>1.061272332951849</v>
+        <v>1.054572706002308</v>
       </c>
       <c r="L22">
-        <v>1.048333131314974</v>
+        <v>1.031554699092313</v>
       </c>
       <c r="M22">
-        <v>1.06410735273233</v>
+        <v>1.048748222411563</v>
       </c>
       <c r="N22">
-        <v>1.017279917413461</v>
+        <v>1.012345835464466</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033456050610137</v>
+        <v>0.996189841149032</v>
       </c>
       <c r="D23">
-        <v>1.057885485492986</v>
+        <v>1.040990639380567</v>
       </c>
       <c r="E23">
-        <v>1.044915582897701</v>
+        <v>1.017558086462292</v>
       </c>
       <c r="F23">
-        <v>1.060767517732051</v>
+        <v>1.03518520434517</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047944709123275</v>
+        <v>1.055906107358628</v>
       </c>
       <c r="J23">
-        <v>1.040175254792699</v>
+        <v>1.026434738377375</v>
       </c>
       <c r="K23">
-        <v>1.061445290446403</v>
+        <v>1.055496519305837</v>
       </c>
       <c r="L23">
-        <v>1.048522952566429</v>
+        <v>1.032484609681388</v>
       </c>
       <c r="M23">
-        <v>1.064316927767412</v>
+        <v>1.049792997459653</v>
       </c>
       <c r="N23">
-        <v>1.017335456922295</v>
+        <v>1.012627596692456</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034631367401535</v>
+        <v>1.002264881135519</v>
       </c>
       <c r="D24">
-        <v>1.058833318698427</v>
+        <v>1.04578593645557</v>
       </c>
       <c r="E24">
-        <v>1.045935245882005</v>
+        <v>1.022430479753159</v>
       </c>
       <c r="F24">
-        <v>1.061860287134371</v>
+        <v>1.04047305907504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048274610786995</v>
+        <v>1.058099868868129</v>
       </c>
       <c r="J24">
-        <v>1.040830137962045</v>
+        <v>1.029676024207139</v>
       </c>
       <c r="K24">
-        <v>1.062125586919453</v>
+        <v>1.059054033420951</v>
       </c>
       <c r="L24">
-        <v>1.049270998923039</v>
+        <v>1.036074817575724</v>
       </c>
       <c r="M24">
-        <v>1.065142518123299</v>
+        <v>1.053824841960197</v>
       </c>
       <c r="N24">
-        <v>1.017554111341979</v>
+        <v>1.013713868048673</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035998787564307</v>
+        <v>1.009077210373554</v>
       </c>
       <c r="D25">
-        <v>1.059935123491437</v>
+        <v>1.051173034569799</v>
       </c>
       <c r="E25">
-        <v>1.047123171496796</v>
+        <v>1.02792272590931</v>
       </c>
       <c r="F25">
-        <v>1.063132528120746</v>
+        <v>1.046426032912678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048652841979254</v>
+        <v>1.060519099718387</v>
       </c>
       <c r="J25">
-        <v>1.041590396196421</v>
+        <v>1.033302904731652</v>
       </c>
       <c r="K25">
-        <v>1.062913685919552</v>
+        <v>1.063025693756179</v>
       </c>
       <c r="L25">
-        <v>1.050140535364892</v>
+        <v>1.040102507204304</v>
       </c>
       <c r="M25">
-        <v>1.06610156591913</v>
+        <v>1.058343991110885</v>
       </c>
       <c r="N25">
-        <v>1.017807830737182</v>
+        <v>1.014929293253879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014334099004617</v>
+        <v>0.9733302273437591</v>
       </c>
       <c r="D2">
-        <v>1.055335777570807</v>
+        <v>1.038733951964738</v>
       </c>
       <c r="E2">
-        <v>1.032182184562638</v>
+        <v>0.9834290449755878</v>
       </c>
       <c r="F2">
-        <v>1.051036660684008</v>
+        <v>1.014431723655822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062351717962077</v>
+        <v>1.055417726218948</v>
       </c>
       <c r="J2">
-        <v>1.036094371938308</v>
+        <v>0.9963389778111796</v>
       </c>
       <c r="K2">
-        <v>1.066074491701478</v>
+        <v>1.049678800285793</v>
       </c>
       <c r="L2">
-        <v>1.043210663176074</v>
+        <v>0.9951241710166278</v>
       </c>
       <c r="M2">
-        <v>1.061827976742531</v>
+        <v>1.02569359734985</v>
       </c>
       <c r="N2">
-        <v>1.015864620896059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.002733366593425</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028907054360237</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046197462624907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018055450932291</v>
+        <v>0.9775580318002668</v>
       </c>
       <c r="D3">
-        <v>1.058284834188728</v>
+        <v>1.040652677871925</v>
       </c>
       <c r="E3">
-        <v>1.035209011489979</v>
+        <v>0.986759021382326</v>
       </c>
       <c r="F3">
-        <v>1.054309446843493</v>
+        <v>1.0177452175814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063628453502457</v>
+        <v>1.056100369525533</v>
       </c>
       <c r="J3">
-        <v>1.038065721850746</v>
+        <v>0.9986797629698976</v>
       </c>
       <c r="K3">
-        <v>1.068222551043807</v>
+        <v>1.050790537878655</v>
       </c>
       <c r="L3">
-        <v>1.045410366764336</v>
+        <v>0.9975641741792403</v>
       </c>
       <c r="M3">
-        <v>1.064291568591614</v>
+        <v>1.028155970187188</v>
       </c>
       <c r="N3">
-        <v>1.016525036304656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.003538832971002</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030855886639793</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046980901428251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020421270564913</v>
+        <v>0.980240605170838</v>
       </c>
       <c r="D4">
-        <v>1.060160391911132</v>
+        <v>1.04186175312107</v>
       </c>
       <c r="E4">
-        <v>1.03713841296284</v>
+        <v>0.9888784718693596</v>
       </c>
       <c r="F4">
-        <v>1.056393961376872</v>
+        <v>1.019841571532101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064430357371893</v>
+        <v>1.056511968826874</v>
       </c>
       <c r="J4">
-        <v>1.039316640605429</v>
+        <v>1.00016362916322</v>
       </c>
       <c r="K4">
-        <v>1.06958315752906</v>
+        <v>1.051479890908391</v>
       </c>
       <c r="L4">
-        <v>1.046808356444015</v>
+        <v>0.9991130034838711</v>
       </c>
       <c r="M4">
-        <v>1.065856264100758</v>
+        <v>1.029706281932846</v>
       </c>
       <c r="N4">
-        <v>1.016944034987878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.004048941166152</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032082870070546</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047469208535526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02140606763393</v>
+        <v>0.9813555353866436</v>
       </c>
       <c r="D5">
-        <v>1.060941238292</v>
+        <v>1.042362349189053</v>
       </c>
       <c r="E5">
-        <v>1.037942742507325</v>
+        <v>0.9897609034668274</v>
       </c>
       <c r="F5">
-        <v>1.057262552557455</v>
+        <v>1.020706152403484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064761777631649</v>
+        <v>1.056676417637576</v>
       </c>
       <c r="J5">
-        <v>1.03983676090531</v>
+        <v>1.000779758194729</v>
       </c>
       <c r="K5">
-        <v>1.070148281006552</v>
+        <v>1.051762556186489</v>
       </c>
       <c r="L5">
-        <v>1.047390147067881</v>
+        <v>0.9997567496592048</v>
       </c>
       <c r="M5">
-        <v>1.0665071851987</v>
+        <v>1.03034243328967</v>
       </c>
       <c r="N5">
-        <v>1.017118232635826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.004260782263882</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032586347006271</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047676169040614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021570853478811</v>
+        <v>0.9815413464897194</v>
       </c>
       <c r="D6">
-        <v>1.061071903191869</v>
+        <v>1.042445844861299</v>
       </c>
       <c r="E6">
-        <v>1.038077400139658</v>
+        <v>0.9899080796531387</v>
       </c>
       <c r="F6">
-        <v>1.057407944956573</v>
+        <v>1.020843828605684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064817093135699</v>
+        <v>1.056701811993537</v>
       </c>
       <c r="J6">
-        <v>1.039923757287201</v>
+        <v>1.000882130108041</v>
       </c>
       <c r="K6">
-        <v>1.070242768695598</v>
+        <v>1.051809493550175</v>
       </c>
       <c r="L6">
-        <v>1.047487489078329</v>
+        <v>0.9998639243288814</v>
       </c>
       <c r="M6">
-        <v>1.066616079119115</v>
+        <v>1.030441891787538</v>
       </c>
       <c r="N6">
-        <v>1.017147368171785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.004296165404688</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03266506261125</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047718012133035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020434467569367</v>
+        <v>0.980253651313804</v>
       </c>
       <c r="D7">
-        <v>1.060170855389734</v>
+        <v>1.041867636773896</v>
       </c>
       <c r="E7">
-        <v>1.037149186890081</v>
+        <v>0.9888888571372718</v>
       </c>
       <c r="F7">
-        <v>1.056405597670999</v>
+        <v>1.019834317040866</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064434808092489</v>
+        <v>1.056509001210149</v>
       </c>
       <c r="J7">
-        <v>1.039323612950398</v>
+        <v>1.000170041736759</v>
       </c>
       <c r="K7">
-        <v>1.069590735561807</v>
+        <v>1.051482869502015</v>
       </c>
       <c r="L7">
-        <v>1.046816153444021</v>
+        <v>0.9991202126260947</v>
       </c>
       <c r="M7">
-        <v>1.065864988547496</v>
+        <v>1.02969618770434</v>
       </c>
       <c r="N7">
-        <v>1.016946370225579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.004051670901056</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032074881070695</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047491219679442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015600655476491</v>
+        <v>0.9747676440214821</v>
       </c>
       <c r="D8">
-        <v>1.056339305392752</v>
+        <v>1.039385720868066</v>
       </c>
       <c r="E8">
-        <v>1.033211268751144</v>
+        <v>0.9845598791982935</v>
       </c>
       <c r="F8">
-        <v>1.052149715959366</v>
+        <v>1.015536025143856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062788275407344</v>
+        <v>1.05564663668081</v>
       </c>
       <c r="J8">
-        <v>1.036765795428896</v>
+        <v>0.9971339909529713</v>
       </c>
       <c r="K8">
-        <v>1.066806601826615</v>
+        <v>1.050057361681656</v>
       </c>
       <c r="L8">
-        <v>1.043959406635784</v>
+        <v>0.995953139874088</v>
       </c>
       <c r="M8">
-        <v>1.062666750570262</v>
+        <v>1.026509584335795</v>
       </c>
       <c r="N8">
-        <v>1.016089565240289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.003007719732159</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029552863658025</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046487801344129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006746184085949</v>
+        <v>0.964676351958269</v>
       </c>
       <c r="D9">
-        <v>1.049328653740089</v>
+        <v>1.03476299846247</v>
       </c>
       <c r="E9">
-        <v>1.026039953813369</v>
+        <v>0.9766511139957917</v>
       </c>
       <c r="F9">
-        <v>1.044386281552486</v>
+        <v>1.007616833018869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059696577823911</v>
+        <v>1.053903745840892</v>
       </c>
       <c r="J9">
-        <v>1.032062945860103</v>
+        <v>0.9915412518673153</v>
       </c>
       <c r="K9">
-        <v>1.061669076294735</v>
+        <v>1.04731616955933</v>
       </c>
       <c r="L9">
-        <v>1.038724220345288</v>
+        <v>0.990134721413381</v>
       </c>
       <c r="M9">
-        <v>1.056798049828861</v>
+        <v>1.020587529464754</v>
       </c>
       <c r="N9">
-        <v>1.014513779687575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.001080049999363</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024865865705974</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044546500193156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000596431175407</v>
+        <v>0.9576760561270177</v>
       </c>
       <c r="D10">
-        <v>1.044468059505721</v>
+        <v>1.031488971774588</v>
       </c>
       <c r="E10">
-        <v>1.021089965299488</v>
+        <v>0.9712111021316782</v>
       </c>
       <c r="F10">
-        <v>1.039018842409737</v>
+        <v>1.002246433464526</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057500553168254</v>
+        <v>1.052597278508979</v>
       </c>
       <c r="J10">
-        <v>1.028786405347387</v>
+        <v>0.9876757020263561</v>
       </c>
       <c r="K10">
-        <v>1.058078307914694</v>
+        <v>1.04531204265242</v>
       </c>
       <c r="L10">
-        <v>1.035088595890433</v>
+        <v>0.9861203592366767</v>
       </c>
       <c r="M10">
-        <v>1.052717611113223</v>
+        <v>1.016575245973611</v>
       </c>
       <c r="N10">
-        <v>1.013415726763728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.999751037145478</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.021742838623923</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043146126955582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9978701411421979</v>
+        <v>0.9548947272593729</v>
       </c>
       <c r="D11">
-        <v>1.042316052123636</v>
+        <v>1.029902182711186</v>
       </c>
       <c r="E11">
-        <v>1.018903383658525</v>
+        <v>0.9691097804697016</v>
       </c>
       <c r="F11">
-        <v>1.036645806746865</v>
+        <v>1.001279888488042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056516004197356</v>
+        <v>1.052140930099837</v>
       </c>
       <c r="J11">
-        <v>1.027331793948176</v>
+        <v>0.9862722468888608</v>
       </c>
       <c r="K11">
-        <v>1.056481761967074</v>
+        <v>1.044281391967654</v>
       </c>
       <c r="L11">
-        <v>1.033477402773024</v>
+        <v>0.9846387388604078</v>
       </c>
       <c r="M11">
-        <v>1.05090821603774</v>
+        <v>1.016177708283083</v>
       </c>
       <c r="N11">
-        <v>1.012928232990641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9993159045851109</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021872959829715</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042449936460989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9968475104247639</v>
+        <v>0.9539155874631668</v>
       </c>
       <c r="D12">
-        <v>1.041509317825612</v>
+        <v>1.029218861426184</v>
       </c>
       <c r="E12">
-        <v>1.018084421968113</v>
+        <v>0.9683885541119793</v>
       </c>
       <c r="F12">
-        <v>1.035756704347558</v>
+        <v>1.001369129575846</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056145092840152</v>
+        <v>1.052015466798698</v>
       </c>
       <c r="J12">
-        <v>1.026785891122394</v>
+        <v>0.9858070077914648</v>
       </c>
       <c r="K12">
-        <v>1.055882249849498</v>
+        <v>1.043806896261651</v>
       </c>
       <c r="L12">
-        <v>1.032873165104865</v>
+        <v>0.984147516621583</v>
       </c>
       <c r="M12">
-        <v>1.050229493226189</v>
+        <v>1.016470146147734</v>
       </c>
       <c r="N12">
-        <v>1.012745280736355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9991963817117849</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022436294735316</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042114458769854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970673264560692</v>
+        <v>0.954261303390144</v>
       </c>
       <c r="D13">
-        <v>1.041682703671233</v>
+        <v>1.029182800810527</v>
       </c>
       <c r="E13">
-        <v>1.01826040290211</v>
+        <v>0.9686807225974142</v>
       </c>
       <c r="F13">
-        <v>1.035947771137703</v>
+        <v>1.002273760544393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056224892662406</v>
+        <v>1.052132783484092</v>
       </c>
       <c r="J13">
-        <v>1.026903245828513</v>
+        <v>0.98603573874572</v>
       </c>
       <c r="K13">
-        <v>1.056011144237736</v>
+        <v>1.043729245073339</v>
       </c>
       <c r="L13">
-        <v>1.033003040823818</v>
+        <v>0.9843874494599586</v>
       </c>
       <c r="M13">
-        <v>1.050375385755723</v>
+        <v>1.017313640180229</v>
       </c>
       <c r="N13">
-        <v>1.012784610614219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9993131175124983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.023383984711946</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042057088508083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9977858160813988</v>
+        <v>0.9550949362398141</v>
       </c>
       <c r="D14">
-        <v>1.042249519440678</v>
+        <v>1.02944628399497</v>
       </c>
       <c r="E14">
-        <v>1.018835827745862</v>
+        <v>0.969336873965132</v>
       </c>
       <c r="F14">
-        <v>1.036572471167417</v>
+        <v>1.00325378300458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056485451644238</v>
+        <v>1.052319091060729</v>
       </c>
       <c r="J14">
-        <v>1.027286784847223</v>
+        <v>0.98650147714332</v>
       </c>
       <c r="K14">
-        <v>1.05643233966651</v>
+        <v>1.043849730836965</v>
       </c>
       <c r="L14">
-        <v>1.033427575285032</v>
+        <v>0.9848789468161686</v>
       </c>
       <c r="M14">
-        <v>1.050852249352623</v>
+        <v>1.018131486194407</v>
       </c>
       <c r="N14">
-        <v>1.012913148763702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9994988910889346</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.024205936915387</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042143685646623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9982271672154468</v>
+        <v>0.9555932937481098</v>
       </c>
       <c r="D15">
-        <v>1.042597766691905</v>
+        <v>1.029651291567481</v>
       </c>
       <c r="E15">
-        <v>1.019189460639648</v>
+        <v>0.9697239368114906</v>
       </c>
       <c r="F15">
-        <v>1.036956346219281</v>
+        <v>1.003695061690729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056645296169777</v>
+        <v>1.052417189913758</v>
       </c>
       <c r="J15">
-        <v>1.027522347987532</v>
+        <v>0.9867745850261045</v>
       </c>
       <c r="K15">
-        <v>1.056690986242982</v>
+        <v>1.04396593785407</v>
       </c>
       <c r="L15">
-        <v>1.033688373824475</v>
+        <v>0.985165080010592</v>
       </c>
       <c r="M15">
-        <v>1.051145174371454</v>
+        <v>1.018476087229194</v>
       </c>
       <c r="N15">
-        <v>1.012992094757797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9995985106987739</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.024516255536869</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042231663944747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000775993241506</v>
+        <v>0.9584958157508796</v>
       </c>
       <c r="D16">
-        <v>1.044609860982384</v>
+        <v>1.03105826220375</v>
       </c>
       <c r="E16">
-        <v>1.021234147947861</v>
+        <v>0.9719661725196137</v>
       </c>
       <c r="F16">
-        <v>1.039175277069883</v>
+        <v>1.005853023444293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057565172764526</v>
+        <v>1.052968910969728</v>
       </c>
       <c r="J16">
-        <v>1.028882170207337</v>
+        <v>0.9883762989527142</v>
       </c>
       <c r="K16">
-        <v>1.058183368252638</v>
+        <v>1.044853413957101</v>
       </c>
       <c r="L16">
-        <v>1.035194728729911</v>
+        <v>0.9868225018690865</v>
       </c>
       <c r="M16">
-        <v>1.052836778105648</v>
+        <v>1.020081028203216</v>
       </c>
       <c r="N16">
-        <v>1.013447820946179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00014125147268</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.025745638299405</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042862269724437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002357526404714</v>
+        <v>0.960290165337528</v>
       </c>
       <c r="D17">
-        <v>1.045859133931408</v>
+        <v>1.032000012146407</v>
       </c>
       <c r="E17">
-        <v>1.022504968294282</v>
+        <v>0.9733484892062494</v>
       </c>
       <c r="F17">
-        <v>1.04055385187399</v>
+        <v>1.006990750496486</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058133073333478</v>
+        <v>1.053290691474993</v>
       </c>
       <c r="J17">
-        <v>1.029725408838633</v>
+        <v>0.9893647607740537</v>
       </c>
       <c r="K17">
-        <v>1.05910818163823</v>
+        <v>1.045469301846306</v>
       </c>
       <c r="L17">
-        <v>1.036129583907687</v>
+        <v>0.9878405300601392</v>
       </c>
       <c r="M17">
-        <v>1.053886320870169</v>
+        <v>1.0208773068283</v>
       </c>
       <c r="N17">
-        <v>1.013730418397246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.000461394565637</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.026244511199328</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043300281184722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003273921061818</v>
+        <v>0.9612815199178262</v>
       </c>
       <c r="D18">
-        <v>1.046583265297128</v>
+        <v>1.032632947012075</v>
       </c>
       <c r="E18">
-        <v>1.023242067200112</v>
+        <v>0.9740998891239768</v>
       </c>
       <c r="F18">
-        <v>1.041353254578957</v>
+        <v>1.007268471103875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058461083358077</v>
+        <v>1.053445722797492</v>
       </c>
       <c r="J18">
-        <v>1.030213811629973</v>
+        <v>0.9898915124076844</v>
       </c>
       <c r="K18">
-        <v>1.059643599486488</v>
+        <v>1.045911203625563</v>
       </c>
       <c r="L18">
-        <v>1.036671319936221</v>
+        <v>0.988381187785513</v>
       </c>
       <c r="M18">
-        <v>1.0544944140973</v>
+        <v>1.020962909742784</v>
       </c>
       <c r="N18">
-        <v>1.013894096815198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.000610417884063</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02607138580405</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043601186942048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003585368450789</v>
+        <v>0.9614803942788406</v>
       </c>
       <c r="D19">
-        <v>1.046829411888139</v>
+        <v>1.032930870502355</v>
       </c>
       <c r="E19">
-        <v>1.023492703293865</v>
+        <v>0.9742241380822392</v>
       </c>
       <c r="F19">
-        <v>1.041625042603668</v>
+        <v>1.006624505402727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058572381698034</v>
+        <v>1.053418238191549</v>
       </c>
       <c r="J19">
-        <v>1.030379766372013</v>
+        <v>0.9899383114642309</v>
       </c>
       <c r="K19">
-        <v>1.059825489315778</v>
+        <v>1.046142764533276</v>
       </c>
       <c r="L19">
-        <v>1.036855442361352</v>
+        <v>0.9884361167104895</v>
       </c>
       <c r="M19">
-        <v>1.05470107203447</v>
+        <v>1.020265927394909</v>
       </c>
       <c r="N19">
-        <v>1.013949712871459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00058804236803</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.025189815419493</v>
+      </c>
+      <c r="Q19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1.04377123596823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002188475553921</v>
+        <v>0.9594860499807133</v>
       </c>
       <c r="D20">
-        <v>1.045725571144318</v>
+        <v>1.032319202216229</v>
       </c>
       <c r="E20">
-        <v>1.022369052415431</v>
+        <v>0.9726149099437156</v>
       </c>
       <c r="F20">
-        <v>1.040406431793798</v>
+        <v>1.003585214186802</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058072478827052</v>
+        <v>1.052919149894939</v>
       </c>
       <c r="J20">
-        <v>1.029635295025844</v>
+        <v>0.9886732753617504</v>
       </c>
       <c r="K20">
-        <v>1.059009374228173</v>
+        <v>1.045816605231586</v>
       </c>
       <c r="L20">
-        <v>1.036029651444626</v>
+        <v>0.9871570139199058</v>
       </c>
       <c r="M20">
-        <v>1.053774139342916</v>
+        <v>1.017565313519708</v>
       </c>
       <c r="N20">
-        <v>1.013700218404792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00009594248863</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022515623202798</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04354450390489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9975745175343169</v>
+        <v>0.9541478833992871</v>
       </c>
       <c r="D21">
-        <v>1.042082812376298</v>
+        <v>1.029861358107725</v>
       </c>
       <c r="E21">
-        <v>1.018666568596961</v>
+        <v>0.968471540272315</v>
       </c>
       <c r="F21">
-        <v>1.036388726319995</v>
+        <v>0.9992560265133882</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05640886847321</v>
+        <v>1.051870962697225</v>
       </c>
       <c r="J21">
-        <v>1.027173998367499</v>
+        <v>0.985696130606413</v>
       </c>
       <c r="K21">
-        <v>1.056308488889688</v>
+        <v>1.0442982536005</v>
       </c>
       <c r="L21">
-        <v>1.033302721528144</v>
+        <v>0.9840759030678521</v>
       </c>
       <c r="M21">
-        <v>1.050712010018541</v>
+        <v>1.014251507422028</v>
       </c>
       <c r="N21">
-        <v>1.012875349816989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9990632006691831</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.01985119853908</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042474180573838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9946156476300285</v>
+        <v>0.9507411270055173</v>
       </c>
       <c r="D22">
-        <v>1.039749605399901</v>
+        <v>1.028282158959383</v>
       </c>
       <c r="E22">
-        <v>1.016299365111654</v>
+        <v>0.9658400004649996</v>
       </c>
       <c r="F22">
-        <v>1.033818204721237</v>
+        <v>0.9965933652956518</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055332689996378</v>
+        <v>1.051199016821992</v>
       </c>
       <c r="J22">
-        <v>1.025593997979586</v>
+        <v>0.983806628973241</v>
       </c>
       <c r="K22">
-        <v>1.054572706002308</v>
+        <v>1.043313417348616</v>
       </c>
       <c r="L22">
-        <v>1.031554699092313</v>
+        <v>0.9821199681685333</v>
       </c>
       <c r="M22">
-        <v>1.048748222411563</v>
+        <v>1.012232611713756</v>
       </c>
       <c r="N22">
-        <v>1.012345835464466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9984093342356161</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018253328478275</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041764500744861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.996189841149032</v>
+        <v>0.9525574534339737</v>
       </c>
       <c r="D23">
-        <v>1.040990639380567</v>
+        <v>1.029132348352809</v>
       </c>
       <c r="E23">
-        <v>1.017558086462292</v>
+        <v>0.9672420856028349</v>
       </c>
       <c r="F23">
-        <v>1.03518520434517</v>
+        <v>0.9980355963827496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055906107358628</v>
+        <v>1.051568912476648</v>
       </c>
       <c r="J23">
-        <v>1.026434738377375</v>
+        <v>0.9848151516680245</v>
       </c>
       <c r="K23">
-        <v>1.055496519305837</v>
+        <v>1.043847988802477</v>
       </c>
       <c r="L23">
-        <v>1.032484609681388</v>
+        <v>0.9831630521668656</v>
       </c>
       <c r="M23">
-        <v>1.049792997459653</v>
+        <v>1.013332352804754</v>
       </c>
       <c r="N23">
-        <v>1.012627596692456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9987577673033129</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019123727239594</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042132922121036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002264881135519</v>
+        <v>0.9595411285117775</v>
       </c>
       <c r="D24">
-        <v>1.04578593645557</v>
+        <v>1.032379123645522</v>
       </c>
       <c r="E24">
-        <v>1.022430479753159</v>
+        <v>0.9726526124712984</v>
       </c>
       <c r="F24">
-        <v>1.04047305907504</v>
+        <v>1.003540646901855</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058099868868129</v>
+        <v>1.052933588314043</v>
       </c>
       <c r="J24">
-        <v>1.029676024207139</v>
+        <v>0.9886907581351234</v>
       </c>
       <c r="K24">
-        <v>1.059054033420951</v>
+        <v>1.045860523630433</v>
       </c>
       <c r="L24">
-        <v>1.036074817575724</v>
+        <v>0.9871776245323058</v>
       </c>
       <c r="M24">
-        <v>1.053824841960197</v>
+        <v>1.017505868810296</v>
       </c>
       <c r="N24">
-        <v>1.013713868048673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.000096958255717</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022426879086023</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043548429795464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009077210373554</v>
+        <v>0.9673350383946688</v>
       </c>
       <c r="D25">
-        <v>1.051173034569799</v>
+        <v>1.035980259964655</v>
       </c>
       <c r="E25">
-        <v>1.02792272590931</v>
+        <v>0.9787281940505769</v>
       </c>
       <c r="F25">
-        <v>1.046426032912678</v>
+        <v>1.009674556860656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060519099718387</v>
+        <v>1.054369398322115</v>
       </c>
       <c r="J25">
-        <v>1.033302904731652</v>
+        <v>0.9930140317370781</v>
       </c>
       <c r="K25">
-        <v>1.063025693756179</v>
+        <v>1.048044572818897</v>
       </c>
       <c r="L25">
-        <v>1.040102507204304</v>
+        <v>0.9916659541738658</v>
       </c>
       <c r="M25">
-        <v>1.058343991110885</v>
+        <v>1.022124521508182</v>
       </c>
       <c r="N25">
-        <v>1.014929293253879</v>
+        <v>1.001589013212504</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026082317926217</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045089803723588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9733302273437591</v>
+        <v>0.9747519797448715</v>
       </c>
       <c r="D2">
-        <v>1.038733951964738</v>
+        <v>1.035974077254783</v>
       </c>
       <c r="E2">
-        <v>0.9834290449755878</v>
+        <v>0.9846353565732511</v>
       </c>
       <c r="F2">
-        <v>1.014431723655822</v>
+        <v>1.016015208972153</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055417726218948</v>
+        <v>1.054445538238058</v>
       </c>
       <c r="J2">
-        <v>0.9963389778111796</v>
+        <v>0.9977150022495918</v>
       </c>
       <c r="K2">
-        <v>1.049678800285793</v>
+        <v>1.046953993021706</v>
       </c>
       <c r="L2">
-        <v>0.9951241710166278</v>
+        <v>0.9963129782909919</v>
       </c>
       <c r="M2">
-        <v>1.02569359734985</v>
+        <v>1.02725584581212</v>
       </c>
       <c r="N2">
-        <v>1.002733366593425</v>
+        <v>1.006572281938382</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028907054360237</v>
+        <v>1.030143488481664</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046197462624907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044279514449261</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023963127960186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9775580318002668</v>
+        <v>0.9788876368357393</v>
       </c>
       <c r="D3">
-        <v>1.040652677871925</v>
+        <v>1.037622735233234</v>
       </c>
       <c r="E3">
-        <v>0.986759021382326</v>
+        <v>0.9878896139043419</v>
       </c>
       <c r="F3">
-        <v>1.0177452175814</v>
+        <v>1.019113260953907</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056100369525533</v>
+        <v>1.054953687660377</v>
       </c>
       <c r="J3">
-        <v>0.9986797629698976</v>
+        <v>0.9999708740630656</v>
       </c>
       <c r="K3">
-        <v>1.050790537878655</v>
+        <v>1.04779583500103</v>
       </c>
       <c r="L3">
-        <v>0.9975641741792403</v>
+        <v>0.9986798309924861</v>
       </c>
       <c r="M3">
-        <v>1.028155970187188</v>
+        <v>1.029507288227488</v>
       </c>
       <c r="N3">
-        <v>1.003538832971002</v>
+        <v>1.007194997598433</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030855886639793</v>
+        <v>1.031925378009448</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046980901428251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044871843972981</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024178719107951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.980240605170838</v>
+        <v>0.9815132166127768</v>
       </c>
       <c r="D4">
-        <v>1.04186175312107</v>
+        <v>1.038665318087495</v>
       </c>
       <c r="E4">
-        <v>0.9888784718693596</v>
+        <v>0.9899621074954925</v>
       </c>
       <c r="F4">
-        <v>1.019841571532101</v>
+        <v>1.021078030238203</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056511968826874</v>
+        <v>1.055257735794972</v>
       </c>
       <c r="J4">
-        <v>1.00016362916322</v>
+        <v>1.001401936785117</v>
       </c>
       <c r="K4">
-        <v>1.051479890908391</v>
+        <v>1.048318451128197</v>
       </c>
       <c r="L4">
-        <v>0.9991130034838711</v>
+        <v>1.000183210048187</v>
       </c>
       <c r="M4">
-        <v>1.029706281932846</v>
+        <v>1.030928547550833</v>
       </c>
       <c r="N4">
-        <v>1.004048941166152</v>
+        <v>1.007589590219416</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032082870070546</v>
+        <v>1.033050222159849</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047469208535526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045242342840061</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024306932400516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9813555353866436</v>
+        <v>0.982605253233218</v>
       </c>
       <c r="D5">
-        <v>1.042362349189053</v>
+        <v>1.039099905802553</v>
       </c>
       <c r="E5">
-        <v>0.9897609034668274</v>
+        <v>0.9908256542552689</v>
       </c>
       <c r="F5">
-        <v>1.020706152403484</v>
+        <v>1.021891747114542</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056676417637576</v>
+        <v>1.055379825893022</v>
       </c>
       <c r="J5">
-        <v>1.000779758194729</v>
+        <v>1.001996814314891</v>
       </c>
       <c r="K5">
-        <v>1.051762556186489</v>
+        <v>1.048534905340067</v>
       </c>
       <c r="L5">
-        <v>0.9997567496592048</v>
+        <v>1.00080866579297</v>
       </c>
       <c r="M5">
-        <v>1.03034243328967</v>
+        <v>1.031514785358749</v>
       </c>
       <c r="N5">
-        <v>1.004260782263882</v>
+        <v>1.007753599797235</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032586347006271</v>
+        <v>1.033514194786573</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047676169040614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045403208547027</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024356901646858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9815413464897194</v>
+        <v>0.9827878278039635</v>
       </c>
       <c r="D6">
-        <v>1.042445844861299</v>
+        <v>1.039174950401725</v>
       </c>
       <c r="E6">
-        <v>0.9899080796531387</v>
+        <v>0.9909701648186543</v>
       </c>
       <c r="F6">
-        <v>1.020843828605684</v>
+        <v>1.022024218250345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056701811993537</v>
+        <v>1.055400144646113</v>
       </c>
       <c r="J6">
-        <v>1.000882130108041</v>
+        <v>1.002096204547925</v>
       </c>
       <c r="K6">
-        <v>1.051809493550175</v>
+        <v>1.048573326493859</v>
       </c>
       <c r="L6">
-        <v>0.9998639243288814</v>
+        <v>1.000913266990379</v>
       </c>
       <c r="M6">
-        <v>1.030441891787538</v>
+        <v>1.031609157727518</v>
       </c>
       <c r="N6">
-        <v>1.004296165404688</v>
+        <v>1.007781107437866</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03266506261125</v>
+        <v>1.033588884918195</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047718012133035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045439909683359</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024363584447993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.980253651313804</v>
+        <v>0.9815388937287274</v>
       </c>
       <c r="D7">
-        <v>1.041867636773896</v>
+        <v>1.038677294128899</v>
       </c>
       <c r="E7">
-        <v>0.9888888571372718</v>
+        <v>0.9899837745910455</v>
       </c>
       <c r="F7">
-        <v>1.019834317040866</v>
+        <v>1.021084320874235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056509001210149</v>
+        <v>1.05526017443315</v>
       </c>
       <c r="J7">
-        <v>1.000170041736759</v>
+        <v>1.001420654475756</v>
       </c>
       <c r="K7">
-        <v>1.051482869502015</v>
+        <v>1.048327443058411</v>
       </c>
       <c r="L7">
-        <v>0.9991202126260947</v>
+        <v>1.000201566329245</v>
       </c>
       <c r="M7">
-        <v>1.02969618770434</v>
+        <v>1.03093184774722</v>
       </c>
       <c r="N7">
-        <v>1.004051670901056</v>
+        <v>1.007621338807962</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032074881070695</v>
+        <v>1.033052834071379</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047491219679442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045270628091896</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024303023203921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9747676440214821</v>
+        <v>0.976194975804259</v>
       </c>
       <c r="D8">
-        <v>1.039385720868066</v>
+        <v>1.036542332022287</v>
       </c>
       <c r="E8">
-        <v>0.9845598791982935</v>
+        <v>0.985773625744222</v>
       </c>
       <c r="F8">
-        <v>1.015536025143856</v>
+        <v>1.017073920109259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05564663668081</v>
+        <v>1.054623481546882</v>
       </c>
       <c r="J8">
-        <v>0.9971339909529713</v>
+        <v>0.9985169915485319</v>
       </c>
       <c r="K8">
-        <v>1.050057361681656</v>
+        <v>1.047249059444872</v>
       </c>
       <c r="L8">
-        <v>0.995953139874088</v>
+        <v>0.9971498141600863</v>
       </c>
       <c r="M8">
-        <v>1.026509584335795</v>
+        <v>1.028027476250354</v>
       </c>
       <c r="N8">
-        <v>1.003007719732159</v>
+        <v>1.006874167312382</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029552863658025</v>
+        <v>1.030754190911678</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046487801344129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044513107650098</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024031121152246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.964676351958269</v>
+        <v>0.966336617256263</v>
       </c>
       <c r="D9">
-        <v>1.03476299846247</v>
+        <v>1.032584157514423</v>
       </c>
       <c r="E9">
-        <v>0.9766511139957917</v>
+        <v>0.9780559401866068</v>
       </c>
       <c r="F9">
-        <v>1.007616833018869</v>
+        <v>1.009692052033284</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053903745840892</v>
+        <v>1.053309424213364</v>
       </c>
       <c r="J9">
-        <v>0.9915412518673153</v>
+        <v>0.9931368043857101</v>
       </c>
       <c r="K9">
-        <v>1.04731616955933</v>
+        <v>1.045169809593835</v>
       </c>
       <c r="L9">
-        <v>0.990134721413381</v>
+        <v>0.9915153692257389</v>
       </c>
       <c r="M9">
-        <v>1.020587529464754</v>
+        <v>1.022629815510399</v>
       </c>
       <c r="N9">
-        <v>1.001080049999363</v>
+        <v>1.005396263364873</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024865865705974</v>
+        <v>1.026482232347413</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044546500193156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043039539081814</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023473820641758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9576760561270177</v>
+        <v>0.9595696249380872</v>
       </c>
       <c r="D10">
-        <v>1.031488971774588</v>
+        <v>1.029811611607538</v>
       </c>
       <c r="E10">
-        <v>0.9712111021316782</v>
+        <v>0.9728110908065597</v>
       </c>
       <c r="F10">
-        <v>1.002246433464526</v>
+        <v>1.004773086653444</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052597278508979</v>
+        <v>1.052328572986633</v>
       </c>
       <c r="J10">
-        <v>0.9876757020263561</v>
+        <v>0.9894845334027914</v>
       </c>
       <c r="K10">
-        <v>1.04531204265242</v>
+        <v>1.043662691185485</v>
       </c>
       <c r="L10">
-        <v>0.9861203592366767</v>
+        <v>0.9876892368169895</v>
       </c>
       <c r="M10">
-        <v>1.016575245973611</v>
+        <v>1.019056693026263</v>
       </c>
       <c r="N10">
-        <v>0.999751037145478</v>
+        <v>1.004508330826754</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021742838623923</v>
+        <v>1.023706660388247</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043146126955582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041992254176013</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02302686263198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9548947272593729</v>
+        <v>0.9570591140097574</v>
       </c>
       <c r="D11">
-        <v>1.029902182711186</v>
+        <v>1.02853939994443</v>
       </c>
       <c r="E11">
-        <v>0.9691097804697016</v>
+        <v>0.9709431887670619</v>
       </c>
       <c r="F11">
-        <v>1.001279888488042</v>
+        <v>1.004222037078584</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052140930099837</v>
+        <v>1.052066878585848</v>
       </c>
       <c r="J11">
-        <v>0.9862722468888608</v>
+        <v>0.9883342092644081</v>
       </c>
       <c r="K11">
-        <v>1.044281391967654</v>
+        <v>1.042942453707399</v>
       </c>
       <c r="L11">
-        <v>0.9846387388604078</v>
+        <v>0.9864346962748561</v>
       </c>
       <c r="M11">
-        <v>1.016177708283083</v>
+        <v>1.019064768783971</v>
       </c>
       <c r="N11">
-        <v>0.9993159045851109</v>
+        <v>1.004460355034911</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021872959829715</v>
+        <v>1.02415659284392</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042449936460989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041518760691583</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022698375536115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9539155874631668</v>
+        <v>0.9562363518019654</v>
       </c>
       <c r="D12">
-        <v>1.029218861426184</v>
+        <v>1.028011266552743</v>
       </c>
       <c r="E12">
-        <v>0.9683885541119793</v>
+        <v>0.9703565380983259</v>
       </c>
       <c r="F12">
-        <v>1.001369129575846</v>
+        <v>1.00454611610663</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052015466798698</v>
+        <v>1.052027469185152</v>
       </c>
       <c r="J12">
-        <v>0.9858070077914648</v>
+        <v>0.9880157176179176</v>
       </c>
       <c r="K12">
-        <v>1.043806896261651</v>
+        <v>1.042620796497814</v>
       </c>
       <c r="L12">
-        <v>0.984147516621583</v>
+        <v>0.9860745827505811</v>
       </c>
       <c r="M12">
-        <v>1.016470146147734</v>
+        <v>1.019586734922206</v>
       </c>
       <c r="N12">
-        <v>0.9991963817117849</v>
+        <v>1.004506991072678</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022436294735316</v>
+        <v>1.024900620407839</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042114458769854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041291346973195</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022513810024514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.954261303390144</v>
+        <v>0.956643910737766</v>
       </c>
       <c r="D13">
-        <v>1.029182800810527</v>
+        <v>1.028027030237545</v>
       </c>
       <c r="E13">
-        <v>0.9686807225974142</v>
+        <v>0.9707012033092814</v>
       </c>
       <c r="F13">
-        <v>1.002273760544393</v>
+        <v>1.005562533916037</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052132783484092</v>
+        <v>1.052159507123912</v>
       </c>
       <c r="J13">
-        <v>0.98603573874572</v>
+        <v>0.9883038617907856</v>
       </c>
       <c r="K13">
-        <v>1.043729245073339</v>
+        <v>1.042593979094803</v>
       </c>
       <c r="L13">
-        <v>0.9843874494599586</v>
+        <v>0.9863660996352566</v>
       </c>
       <c r="M13">
-        <v>1.017313640180229</v>
+        <v>1.020540256298655</v>
       </c>
       <c r="N13">
-        <v>0.9993131175124983</v>
+        <v>1.004591795492239</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.023383984711946</v>
+        <v>1.025934652384527</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042057088508083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041269675016785</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022424715577634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9550949362398141</v>
+        <v>0.9574800488637287</v>
       </c>
       <c r="D14">
-        <v>1.02944628399497</v>
+        <v>1.028282976736689</v>
       </c>
       <c r="E14">
-        <v>0.969336873965132</v>
+        <v>0.9713589141069591</v>
       </c>
       <c r="F14">
-        <v>1.00325378300458</v>
+        <v>1.006569207252951</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052319091060729</v>
+        <v>1.052325913238739</v>
       </c>
       <c r="J14">
-        <v>0.98650147714332</v>
+        <v>0.9887736624105129</v>
       </c>
       <c r="K14">
-        <v>1.043849730836965</v>
+        <v>1.042706822653101</v>
       </c>
       <c r="L14">
-        <v>0.9848789468161686</v>
+        <v>0.9868596642927683</v>
       </c>
       <c r="M14">
-        <v>1.018131486194407</v>
+        <v>1.021385100009783</v>
       </c>
       <c r="N14">
-        <v>0.9994988910889346</v>
+        <v>1.004667807010122</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.024205936915387</v>
+        <v>1.02677759291276</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042143685646623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041351006108477</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022402822118477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9555932937481098</v>
+        <v>0.9579592499325267</v>
       </c>
       <c r="D15">
-        <v>1.029651291567481</v>
+        <v>1.028466287773924</v>
       </c>
       <c r="E15">
-        <v>0.9697239368114906</v>
+        <v>0.9717293344849799</v>
       </c>
       <c r="F15">
-        <v>1.003695061690729</v>
+        <v>1.006993896049556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052417189913758</v>
+        <v>1.052406262151376</v>
       </c>
       <c r="J15">
-        <v>0.9867745850261045</v>
+        <v>0.9890295312008365</v>
       </c>
       <c r="K15">
-        <v>1.04396593785407</v>
+        <v>1.042801562057755</v>
       </c>
       <c r="L15">
-        <v>0.985165080010592</v>
+        <v>0.9871298208480861</v>
       </c>
       <c r="M15">
-        <v>1.018476087229194</v>
+        <v>1.021713910619019</v>
       </c>
       <c r="N15">
-        <v>0.9995985106987739</v>
+        <v>1.004699994543812</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.024516255536869</v>
+        <v>1.027075362644848</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042231663944747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04142437630971</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022416784065248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9584958157508796</v>
+        <v>0.9606683545878594</v>
       </c>
       <c r="D16">
-        <v>1.03105826220375</v>
+        <v>1.029647649355147</v>
       </c>
       <c r="E16">
-        <v>0.9719661725196137</v>
+        <v>0.973805439929469</v>
       </c>
       <c r="F16">
-        <v>1.005853023444293</v>
+        <v>1.008892970474913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052968910969728</v>
+        <v>1.052812437640966</v>
       </c>
       <c r="J16">
-        <v>0.9883762989527142</v>
+        <v>0.9904522083642032</v>
       </c>
       <c r="K16">
-        <v>1.044853413957101</v>
+        <v>1.043466304452343</v>
       </c>
       <c r="L16">
-        <v>0.9868225018690865</v>
+        <v>0.9886261955240464</v>
       </c>
       <c r="M16">
-        <v>1.020081028203216</v>
+        <v>1.023067283146764</v>
       </c>
       <c r="N16">
-        <v>1.00014125147268</v>
+        <v>1.004875111432408</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.025745638299405</v>
+        <v>1.028105980406223</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042862269724437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041897806625992</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022637240080221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.960290165337528</v>
+        <v>0.9623263026819665</v>
       </c>
       <c r="D17">
-        <v>1.032000012146407</v>
+        <v>1.030420893933187</v>
       </c>
       <c r="E17">
-        <v>0.9733484892062494</v>
+        <v>0.9750710979828696</v>
       </c>
       <c r="F17">
-        <v>1.006990750496486</v>
+        <v>1.009826282394822</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053290691474993</v>
+        <v>1.053034256379144</v>
       </c>
       <c r="J17">
-        <v>0.9893647607740537</v>
+        <v>0.9913133789864349</v>
       </c>
       <c r="K17">
-        <v>1.045469301846306</v>
+        <v>1.043915760980767</v>
       </c>
       <c r="L17">
-        <v>0.9878405300601392</v>
+        <v>0.9895308107649867</v>
       </c>
       <c r="M17">
-        <v>1.0208773068283</v>
+        <v>1.02366418729437</v>
       </c>
       <c r="N17">
-        <v>1.000461394565637</v>
+        <v>1.005001464719113</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.026244511199328</v>
+        <v>1.028447491177143</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043300281184722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042218396450104</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022815715079371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9612815199178262</v>
+        <v>0.963201034118554</v>
       </c>
       <c r="D18">
-        <v>1.032632947012075</v>
+        <v>1.030911725509287</v>
       </c>
       <c r="E18">
-        <v>0.9740998891239768</v>
+        <v>0.9757226964261526</v>
       </c>
       <c r="F18">
-        <v>1.007268471103875</v>
+        <v>1.009909188718177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053445722797492</v>
+        <v>1.053111780658582</v>
       </c>
       <c r="J18">
-        <v>0.9898915124076844</v>
+        <v>0.9917301542102785</v>
       </c>
       <c r="K18">
-        <v>1.045911203625563</v>
+        <v>1.044217393751721</v>
       </c>
       <c r="L18">
-        <v>0.988381187785513</v>
+        <v>0.9899740728603937</v>
       </c>
       <c r="M18">
-        <v>1.020962909742784</v>
+        <v>1.023559041070073</v>
       </c>
       <c r="N18">
-        <v>1.000610417884063</v>
+        <v>1.005050159476016</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02607138580405</v>
+        <v>1.028124019809361</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043601186942048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042418990019057</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022980648039996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9614803942788406</v>
+        <v>0.9633109524693081</v>
       </c>
       <c r="D19">
-        <v>1.032930870502355</v>
+        <v>1.03111926593102</v>
       </c>
       <c r="E19">
-        <v>0.9742241380822392</v>
+        <v>0.9757705104875264</v>
       </c>
       <c r="F19">
-        <v>1.006624505402727</v>
+        <v>1.00911331231281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053418238191549</v>
+        <v>1.053042444389149</v>
       </c>
       <c r="J19">
-        <v>0.9899383114642309</v>
+        <v>0.991692236005372</v>
       </c>
       <c r="K19">
-        <v>1.046142764533276</v>
+        <v>1.044359839520154</v>
       </c>
       <c r="L19">
-        <v>0.9884361167104895</v>
+        <v>0.989954137015074</v>
       </c>
       <c r="M19">
-        <v>1.020265927394909</v>
+        <v>1.022712860938065</v>
       </c>
       <c r="N19">
-        <v>1.00058804236803</v>
+        <v>1.004998578419082</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025189815419493</v>
+        <v>1.027125136342044</v>
       </c>
       <c r="Q19">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04377123596823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042526656917777</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023101567857545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594860499807133</v>
+        <v>0.9612917753747916</v>
       </c>
       <c r="D20">
-        <v>1.032319202216229</v>
+        <v>1.030533760275268</v>
       </c>
       <c r="E20">
-        <v>0.9726149099437156</v>
+        <v>0.9741392638896373</v>
       </c>
       <c r="F20">
-        <v>1.003585214186802</v>
+        <v>1.006005741063147</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052919149894939</v>
+        <v>1.052580873246576</v>
       </c>
       <c r="J20">
-        <v>0.9886732753617504</v>
+        <v>0.9904009278702031</v>
       </c>
       <c r="K20">
-        <v>1.045816605231586</v>
+        <v>1.044060148920263</v>
       </c>
       <c r="L20">
-        <v>0.9871570139199058</v>
+        <v>0.9886526137606193</v>
       </c>
       <c r="M20">
-        <v>1.017565313519708</v>
+        <v>1.019943802448113</v>
       </c>
       <c r="N20">
-        <v>1.00009594248863</v>
+        <v>1.004661743976088</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022515623202798</v>
+        <v>1.024397986776868</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04354450390489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042319023930709</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023126434235359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541478833992871</v>
+        <v>0.9562777852917029</v>
       </c>
       <c r="D21">
-        <v>1.029861358107725</v>
+        <v>1.02844580336905</v>
       </c>
       <c r="E21">
-        <v>0.968471540272315</v>
+        <v>0.9702776858531464</v>
       </c>
       <c r="F21">
-        <v>0.9992560265133882</v>
+        <v>1.002080335050425</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051870962697225</v>
+        <v>1.051784725116502</v>
       </c>
       <c r="J21">
-        <v>0.985696130606413</v>
+        <v>0.9877244953262588</v>
       </c>
       <c r="K21">
-        <v>1.0442982536005</v>
+        <v>1.042907583912926</v>
       </c>
       <c r="L21">
-        <v>0.9840759030678521</v>
+        <v>0.9858449175398838</v>
       </c>
       <c r="M21">
-        <v>1.014251507422028</v>
+        <v>1.017022401741269</v>
       </c>
       <c r="N21">
-        <v>0.9990632006691831</v>
+        <v>1.004344073644117</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.01985119853908</v>
+        <v>1.022044237288164</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042474180573838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041507641722807</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022791922124839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9507411270055173</v>
+        <v>0.9530818326098618</v>
       </c>
       <c r="D22">
-        <v>1.028282158959383</v>
+        <v>1.027103433267459</v>
       </c>
       <c r="E22">
-        <v>0.9658400004649996</v>
+        <v>0.9678296486876505</v>
       </c>
       <c r="F22">
-        <v>0.9965933652956518</v>
+        <v>0.9996822032293695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051199016821992</v>
+        <v>1.051273171254379</v>
       </c>
       <c r="J22">
-        <v>0.983806628973241</v>
+        <v>0.9860289424743943</v>
       </c>
       <c r="K22">
-        <v>1.043313417348616</v>
+        <v>1.042156431351114</v>
       </c>
       <c r="L22">
-        <v>0.9821199681685333</v>
+        <v>0.9840665286478267</v>
       </c>
       <c r="M22">
-        <v>1.012232611713756</v>
+        <v>1.015259958365748</v>
       </c>
       <c r="N22">
-        <v>0.9984093342356161</v>
+        <v>1.004138244131157</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018253328478275</v>
+        <v>1.020649343124242</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041764500744861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040961875082536</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022571451385204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9525574534339737</v>
+        <v>0.954764685299162</v>
       </c>
       <c r="D23">
-        <v>1.029132348352809</v>
+        <v>1.027818067198679</v>
       </c>
       <c r="E23">
-        <v>0.9672420856028349</v>
+        <v>0.9691148203492774</v>
       </c>
       <c r="F23">
-        <v>0.9980355963827496</v>
+        <v>1.000961048622756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051568912476648</v>
+        <v>1.051549156089248</v>
       </c>
       <c r="J23">
-        <v>0.9848151516680245</v>
+        <v>0.9869141683732247</v>
       </c>
       <c r="K23">
-        <v>1.043847988802477</v>
+        <v>1.042557343136819</v>
       </c>
       <c r="L23">
-        <v>0.9831630521668656</v>
+        <v>0.9849963261613369</v>
       </c>
       <c r="M23">
-        <v>1.013332352804754</v>
+        <v>1.016201120280823</v>
       </c>
       <c r="N23">
-        <v>0.9987577673033129</v>
+        <v>1.004202626681621</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019123727239594</v>
+        <v>1.021394230543668</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042132922121036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041234852358361</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022698021539004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595411285117775</v>
+        <v>0.9613336545942734</v>
       </c>
       <c r="D24">
-        <v>1.032379123645522</v>
+        <v>1.030567839563298</v>
       </c>
       <c r="E24">
-        <v>0.9726526124712984</v>
+        <v>0.9741657411013604</v>
       </c>
       <c r="F24">
-        <v>1.003540646901855</v>
+        <v>1.005925775042629</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052933588314043</v>
+        <v>1.052578162283243</v>
       </c>
       <c r="J24">
-        <v>0.9886907581351234</v>
+        <v>0.9904059032442621</v>
       </c>
       <c r="K24">
-        <v>1.045860523630433</v>
+        <v>1.044078603703631</v>
       </c>
       <c r="L24">
-        <v>0.9871776245323058</v>
+        <v>0.9886622503593651</v>
       </c>
       <c r="M24">
-        <v>1.017505868810296</v>
+        <v>1.019849620487474</v>
       </c>
       <c r="N24">
-        <v>1.000096958255717</v>
+        <v>1.004655457612479</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022426879086023</v>
+        <v>1.024281846937537</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043548429795464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042302262353787</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023151915949966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9673350383946688</v>
+        <v>0.9689212905082464</v>
       </c>
       <c r="D25">
-        <v>1.035980259964655</v>
+        <v>1.033634830061345</v>
       </c>
       <c r="E25">
-        <v>0.9787281940505769</v>
+        <v>0.980071327297573</v>
       </c>
       <c r="F25">
-        <v>1.009674556860656</v>
+        <v>1.011612694936386</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054369398322115</v>
+        <v>1.053668382880848</v>
       </c>
       <c r="J25">
-        <v>0.9930140317370781</v>
+        <v>0.994541835651933</v>
       </c>
       <c r="K25">
-        <v>1.048044572818897</v>
+        <v>1.045732519032578</v>
       </c>
       <c r="L25">
-        <v>0.9916659541738658</v>
+        <v>0.9929870942977879</v>
       </c>
       <c r="M25">
-        <v>1.022124521508182</v>
+        <v>1.024033374313098</v>
       </c>
       <c r="N25">
-        <v>1.001589013212504</v>
+        <v>1.00575207449659</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026082317926217</v>
+        <v>1.0275930763015</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045089803723588</v>
+        <v>1.043468515602117</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.023618277026348</v>
       </c>
     </row>
   </sheetData>
